--- a/error_etha.xlsx
+++ b/error_etha.xlsx
@@ -1776,623 +1776,623 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="1">
-                  <c:v>-2.2231677155012051</c:v>
+                  <c:v>-2.0941928717917979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.47408142585186</c:v>
+                  <c:v>-2.2113198675702996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.5963100035690059</c:v>
+                  <c:v>-2.3054985156860979</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.6116024046084236</c:v>
+                  <c:v>-2.5569641294964862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.6131817263689641</c:v>
+                  <c:v>-2.6064947479599962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.6135995008658583</c:v>
+                  <c:v>-2.6122475067471078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.6138706857315377</c:v>
+                  <c:v>-2.6134668667165895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.6140894483394348</c:v>
+                  <c:v>-2.6141042708035758</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.6142599220810006</c:v>
+                  <c:v>-2.6145911133110382</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.6144328333901781</c:v>
+                  <c:v>-2.6150183030011034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.6145773894835354</c:v>
+                  <c:v>-2.6154380490788904</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.6147382014003018</c:v>
+                  <c:v>-2.6158622793527755</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.614888042248332</c:v>
+                  <c:v>-2.6162861614130475</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.6150302202315334</c:v>
+                  <c:v>-2.6167033874447991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.6151654570862566</c:v>
+                  <c:v>-2.6171462245733008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.615311242515403</c:v>
+                  <c:v>-2.6175932386740746</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.6154413856770788</c:v>
+                  <c:v>-2.6163026485182148</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.6155770077300762</c:v>
+                  <c:v>-2.6185039162830162</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.6157202107542936</c:v>
+                  <c:v>-2.6189784219109922</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.6158400442354117</c:v>
+                  <c:v>-2.6193508422251424</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.6159960978676171</c:v>
+                  <c:v>-2.6199575555627379</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.6161276830314737</c:v>
+                  <c:v>-2.6204812701852318</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.6162603285112418</c:v>
+                  <c:v>-2.6210115014469912</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.6163987198383163</c:v>
+                  <c:v>-2.621525456787873</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.6165188662165151</c:v>
+                  <c:v>-2.6220858414773462</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.6166735771982554</c:v>
+                  <c:v>-2.6226475428869116</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.6168099555565161</c:v>
+                  <c:v>-2.6232178147102867</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.6169544116736225</c:v>
+                  <c:v>-2.6234138140082899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.6170916928155501</c:v>
+                  <c:v>-2.6244301061088566</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-2.6172299848170639</c:v>
+                  <c:v>-2.625068404529233</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.6173591493262909</c:v>
+                  <c:v>-2.6257049021974206</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.6175024896941155</c:v>
+                  <c:v>-2.6263937963096393</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.6176534395502138</c:v>
+                  <c:v>-2.6270751181367209</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.61737169688783</c:v>
+                  <c:v>-2.627790885574051</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2.6179465974224314</c:v>
+                  <c:v>-2.6285476013139393</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.6180966126166507</c:v>
+                  <c:v>-2.6293270896634704</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.6182601075229539</c:v>
+                  <c:v>-2.6301126173755702</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-2.6184171359214816</c:v>
+                  <c:v>-2.6309082695109849</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2.6185763112796625</c:v>
+                  <c:v>-2.6317749707943987</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-2.6187398077124633</c:v>
+                  <c:v>-2.6326646967979337</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.6189105375326553</c:v>
+                  <c:v>-2.6335677827094366</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2.6190929380600374</c:v>
+                  <c:v>-2.6345135673052682</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.6192670149977371</c:v>
+                  <c:v>-2.6355187797425073</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2.6194441366311318</c:v>
+                  <c:v>-2.6365393614167014</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.6196293757441076</c:v>
+                  <c:v>-2.6376086094749516</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-2.6198417469911668</c:v>
+                  <c:v>-2.6386796409968163</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-2.6200449888146364</c:v>
+                  <c:v>-2.6398264081985494</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-2.6187954977983061</c:v>
+                  <c:v>-2.6409704460549843</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-2.6204716332956202</c:v>
+                  <c:v>-2.64216462296719</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-2.620697817128677</c:v>
+                  <c:v>-2.6434618939804362</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-2.6209230196299358</c:v>
+                  <c:v>-2.6442594363937908</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-2.6211612044607415</c:v>
+                  <c:v>-2.6461546865179608</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-2.6214048168241311</c:v>
+                  <c:v>-2.6475724145115933</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-2.6216737957095262</c:v>
+                  <c:v>-2.6490269880241093</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-2.6219663531245807</c:v>
+                  <c:v>-2.6505177180508186</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-2.6222595677031242</c:v>
+                  <c:v>-2.6521055466201569</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-2.622554639876022</c:v>
+                  <c:v>-2.6536899295651328</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-2.6228710097959267</c:v>
+                  <c:v>-2.655375071477533</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-2.6231950498774408</c:v>
+                  <c:v>-2.657009193320941</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-2.6235407844937693</c:v>
+                  <c:v>-2.6588266854255691</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-2.6239026543286066</c:v>
+                  <c:v>-2.6605320142573015</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-2.6242843593551743</c:v>
+                  <c:v>-2.6623678861214426</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-2.6246779188753435</c:v>
+                  <c:v>-2.6642090516174219</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-2.6244380517095376</c:v>
+                  <c:v>-2.6660540590915294</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-2.6255186707526641</c:v>
+                  <c:v>-2.6679287880797076</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.6259651107161135</c:v>
+                  <c:v>-2.6698505157038128</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.6264336108011364</c:v>
+                  <c:v>-2.6717748705274893</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-2.6269289208918112</c:v>
+                  <c:v>-2.673732004928898</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-2.6274637722583511</c:v>
+                  <c:v>-2.6756292624822322</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-2.6280379924585873</c:v>
+                  <c:v>-2.6775658727219094</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-2.6286185034379606</c:v>
+                  <c:v>-2.6766698310299706</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-2.6292317436542478</c:v>
+                  <c:v>-2.6814038871256543</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.6298504712649118</c:v>
+                  <c:v>-2.6833098808874607</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-2.6305224139326668</c:v>
+                  <c:v>-2.6848694337887871</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.6312604702422671</c:v>
+                  <c:v>-2.6869085418438878</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-2.6319755314503137</c:v>
+                  <c:v>-2.68868806457492</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-2.6327229883809009</c:v>
+                  <c:v>-2.6903331477349397</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-2.6335186634787942</c:v>
+                  <c:v>-2.6921538203638602</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-2.6343370421762953</c:v>
+                  <c:v>-2.6937717754221264</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.6351813182407402</c:v>
+                  <c:v>-2.6954205416378478</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-2.6360709837578455</c:v>
+                  <c:v>-2.6969093574448557</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.6370181376957098</c:v>
+                  <c:v>-2.6984821699843309</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-2.6379770918618046</c:v>
+                  <c:v>-2.699977785090248</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-2.6389786676624758</c:v>
+                  <c:v>-2.7014172436610417</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-2.6400382042493766</c:v>
+                  <c:v>-2.7027859881345844</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-2.6411348615335988</c:v>
+                  <c:v>-2.7041755136598487</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-2.64228876108738</c:v>
+                  <c:v>-2.70550646289013</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-2.6435395532389374</c:v>
+                  <c:v>-2.7067995974009755</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-2.6447516228212722</c:v>
+                  <c:v>-2.7080711558186046</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-2.6460434150384171</c:v>
+                  <c:v>-2.7093490582731254</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-2.6474436757916369</c:v>
+                  <c:v>-2.710619050953945</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-2.6488586486661476</c:v>
+                  <c:v>-2.711814026567116</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-2.6503093851347477</c:v>
+                  <c:v>-2.7130279308567493</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-2.651813428208984</c:v>
+                  <c:v>-2.7142010180177447</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-2.653285539203706</c:v>
+                  <c:v>-2.7154379094102361</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-2.6548088342446872</c:v>
+                  <c:v>-2.7166322085509402</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-2.6564412638376815</c:v>
+                  <c:v>-2.7178276089282076</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-2.6580699750061583</c:v>
+                  <c:v>-2.7189966837055293</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-2.6597420080197556</c:v>
+                  <c:v>-2.7202148765577001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-2.6614806363198884</c:v>
+                  <c:v>-2.7213911085185565</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-2.6631163393617281</c:v>
+                  <c:v>-2.7225941172203534</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-2.6647376973558403</c:v>
+                  <c:v>-2.7238031160950382</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-2.6663777807036388</c:v>
+                  <c:v>-2.7249966653278648</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-2.6680772644218251</c:v>
+                  <c:v>-2.7262170241046486</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-2.6697987551892624</c:v>
+                  <c:v>-2.7273846011166962</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-2.6714605875461692</c:v>
+                  <c:v>-2.7286222141883485</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-2.6732342410454146</c:v>
+                  <c:v>-2.729824523089952</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-2.6749237774064714</c:v>
+                  <c:v>-2.7310535941388863</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-2.676591182969037</c:v>
+                  <c:v>-2.7322540162461029</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-2.674615860342386</c:v>
+                  <c:v>-2.7334972932936683</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-2.6798411002013318</c:v>
+                  <c:v>-2.7347489276855459</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-2.6813518985907856</c:v>
+                  <c:v>-2.7359586641056595</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-2.682798899633331</c:v>
+                  <c:v>-2.7371162319294284</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-2.6842203208107978</c:v>
+                  <c:v>-2.7370279127526711</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-2.6855913663816149</c:v>
+                  <c:v>-2.7396125080835665</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-2.6869313955148137</c:v>
+                  <c:v>-2.7407951905295271</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-2.6883379582065299</c:v>
+                  <c:v>-2.742028409361243</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-2.6897196230932954</c:v>
+                  <c:v>-2.7432265154321276</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-2.6909808545968446</c:v>
+                  <c:v>-2.7444555188393975</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-2.6922090004648784</c:v>
+                  <c:v>-2.7454739614754655</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-2.6934222133836361</c:v>
+                  <c:v>-2.7468677270963648</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-2.6945758987940831</c:v>
+                  <c:v>-2.7480446101112679</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-2.6956705797382603</c:v>
+                  <c:v>-2.749208206807936</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-2.6967406242983154</c:v>
+                  <c:v>-2.7503996491916998</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-2.6977355920412434</c:v>
+                  <c:v>-2.7515673225437083</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-2.6986423247432154</c:v>
+                  <c:v>-2.7527534204879762</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-2.6994894179154456</c:v>
+                  <c:v>-2.7539184508130732</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-2.7003030878894285</c:v>
+                  <c:v>-2.7550940132920982</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-2.7010666561896954</c:v>
+                  <c:v>-2.7562552827510012</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-2.7017918013352848</c:v>
+                  <c:v>-2.7575021038026444</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-2.7025064442737441</c:v>
+                  <c:v>-2.7586618142069517</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-2.7031752686884762</c:v>
+                  <c:v>-2.7598491455409202</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-2.7037983802964711</c:v>
+                  <c:v>-2.7610221229497243</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-2.7044060296775765</c:v>
+                  <c:v>-2.7622308885173634</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-2.7050152377420473</c:v>
+                  <c:v>-2.7634193732135546</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-2.7055909596060492</c:v>
+                  <c:v>-2.7646345104172974</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-2.7061387803950088</c:v>
+                  <c:v>-2.7657271299220136</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-2.7066538462356062</c:v>
+                  <c:v>-2.7671582683177998</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-2.7071358526053619</c:v>
+                  <c:v>-2.7683914849464308</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-2.7075949643459958</c:v>
+                  <c:v>-2.7696948670008688</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-2.7080358725662657</c:v>
+                  <c:v>-2.7709465575146308</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-2.7084527323811218</c:v>
+                  <c:v>-2.7722281894499701</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-2.7088496279034109</c:v>
+                  <c:v>-2.7735590752276451</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-2.7092359018253811</c:v>
+                  <c:v>-2.7749082928924516</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-2.7095931230649577</c:v>
+                  <c:v>-2.7762111193901564</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-2.7099408635264712</c:v>
+                  <c:v>-2.7776360463365486</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-2.7102708546258962</c:v>
+                  <c:v>-2.7790495042929328</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-2.7105823861693508</c:v>
+                  <c:v>-2.7804426734977077</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-2.7108153076510457</c:v>
+                  <c:v>-2.7818642128100275</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-2.7111533171087809</c:v>
+                  <c:v>-2.783419826033072</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-2.7111952989201606</c:v>
+                  <c:v>-2.7849453006389524</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-2.7117077926919935</c:v>
+                  <c:v>-2.786542625294024</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-2.7119563880376276</c:v>
+                  <c:v>-2.7881310858680179</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-2.7122188113801706</c:v>
+                  <c:v>-2.7898058793476341</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-2.7124660712957964</c:v>
+                  <c:v>-2.7915149723810426</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-2.7126839973625443</c:v>
+                  <c:v>-2.7932132384804738</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-2.7129178276924657</c:v>
+                  <c:v>-2.7947298041217152</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-2.7131534615024528</c:v>
+                  <c:v>-2.7967714932966841</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-2.7133381660758946</c:v>
+                  <c:v>-2.7986471479930159</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-2.7135990254735085</c:v>
+                  <c:v>-2.8006295255624942</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-2.7138145082210183</c:v>
+                  <c:v>-2.8025354181233739</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-2.7140206006117387</c:v>
+                  <c:v>-2.8045351782975656</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-2.7142380214368278</c:v>
+                  <c:v>-2.8066066822882494</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-2.7144512225814217</c:v>
+                  <c:v>-2.8087830375631859</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-2.7146681929135577</c:v>
+                  <c:v>-2.8110063640079859</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-2.7142851582056062</c:v>
+                  <c:v>-2.8132959083135733</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-2.7150882181734151</c:v>
+                  <c:v>-2.8156965449575275</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-2.7152623030790424</c:v>
+                  <c:v>-2.818240186575113</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-2.7154806348995395</c:v>
+                  <c:v>-2.8208476670095974</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-2.7156914816907034</c:v>
+                  <c:v>-2.8235623049919241</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-2.7159097439515705</c:v>
+                  <c:v>-2.8242434996140537</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-2.7161294118801123</c:v>
+                  <c:v>-2.8292693464243159</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-2.7065761157010075</c:v>
+                  <c:v>-2.8320101667500372</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-2.7165433723091361</c:v>
+                  <c:v>-2.8354781441607737</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-2.7167524527092657</c:v>
+                  <c:v>-2.8366414726894473</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-2.7169804681562355</c:v>
+                  <c:v>-2.842384124019973</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-2.7171940618546029</c:v>
+                  <c:v>-2.8461933636398467</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-2.7173963178150351</c:v>
+                  <c:v>-2.8502233579332352</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-2.7176195531332672</c:v>
+                  <c:v>-2.8543256113399353</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-2.7178516025404234</c:v>
+                  <c:v>-2.8563273290175912</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-2.7180742924566954</c:v>
+                  <c:v>-2.8634681608908696</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-2.7182920468309213</c:v>
+                  <c:v>-2.8684650364405964</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-2.7185018289639085</c:v>
+                  <c:v>-2.8737956940074567</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-2.7187678855859589</c:v>
+                  <c:v>-2.8792716886932967</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-2.7190030285621858</c:v>
+                  <c:v>-2.8852008765432235</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-2.7192538292231352</c:v>
+                  <c:v>-2.8741301532374841</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-2.7194913431190355</c:v>
+                  <c:v>-2.898495954236628</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-2.7197287130325551</c:v>
+                  <c:v>-2.905931191914688</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-2.7199959200968897</c:v>
+                  <c:v>-2.9136152343914166</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-2.7202786285656186</c:v>
+                  <c:v>-2.9219027695947033</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-2.7205532619208954</c:v>
+                  <c:v>-2.9304849816673113</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-2.7208186488279269</c:v>
+                  <c:v>-2.9399077724685467</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-2.7211108693561723</c:v>
+                  <c:v>-2.9498531105043164</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-2.7214046247564383</c:v>
+                  <c:v>-2.9600538327008543</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-2.7217038152048616</c:v>
+                  <c:v>-2.9711667465024068</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-2.7219851958386512</c:v>
+                  <c:v>-2.9828015090425111</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-2.7223099278913523</c:v>
+                  <c:v>-2.9947281503076852</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-2.7226145250613047</c:v>
+                  <c:v>-3.0067224955856626</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-2.7229603861265734</c:v>
+                  <c:v>-3.020045803593201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="115962624"/>
-        <c:axId val="115964160"/>
+        <c:axId val="132547328"/>
+        <c:axId val="132548864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115962624"/>
+        <c:axId val="132547328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115964160"/>
+        <c:crossAx val="132548864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115964160"/>
+        <c:axId val="132548864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,7 +2400,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115962624"/>
+        <c:crossAx val="132547328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2413,7 +2413,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2763,18 +2763,18 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>5.9818054555765502E-3</v>
+        <v>8.0502084905311692E-3</v>
       </c>
       <c r="C2">
         <f>LOG10(B2)</f>
-        <v>-2.2231677155012051</v>
+        <v>-2.0941928717917979</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2">
         <f>LOG10(B2)</f>
-        <v>-2.2231677155012051</v>
+        <v>-2.0941928717917979</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2782,18 +2782,18 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <v>3.3567467271418501E-3</v>
+        <v>6.1472394804025802E-3</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="0">LOG10(B3)</f>
-        <v>-2.47408142585186</v>
+        <v>-2.2113198675702996</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="1">LOG10(B3)</f>
-        <v>-2.47408142585186</v>
+        <v>-2.2113198675702996</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2801,18 +2801,18 @@
         <v>300</v>
       </c>
       <c r="B4">
-        <v>2.5333196770533899E-3</v>
+        <v>4.9488180230416101E-3</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>-2.5963100035690059</v>
+        <v>-2.3054985156860979</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>-2.5963100035690059</v>
+        <v>-2.3054985156860979</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2820,18 +2820,18 @@
         <v>400</v>
       </c>
       <c r="B5">
-        <v>2.4456685308514299E-3</v>
+        <v>2.7735491761715198E-3</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>-2.6116024046084236</v>
+        <v>-2.5569641294964862</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>-2.6116024046084236</v>
+        <v>-2.5569641294964862</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2839,18 +2839,18 @@
         <v>500</v>
       </c>
       <c r="B6">
-        <v>2.4367909531573901E-3</v>
+        <v>2.4746013871731502E-3</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>-2.6131817263689641</v>
+        <v>-2.6064947479599962</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>-2.6131817263689641</v>
+        <v>-2.6064947479599962</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2858,18 +2858,18 @@
         <v>600</v>
       </c>
       <c r="B7">
-        <v>2.4344479815988202E-3</v>
+        <v>2.4420384252867699E-3</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-2.6135995008658583</v>
+        <v>-2.6122475067471078</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>-2.6135995008658583</v>
+        <v>-2.6122475067471078</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2877,18 +2877,18 @@
         <v>700</v>
       </c>
       <c r="B8">
-        <v>2.4329283229323302E-3</v>
+        <v>2.4351915789990399E-3</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>-2.6138706857315377</v>
+        <v>-2.6134668667165895</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>-2.6138706857315377</v>
+        <v>-2.6134668667165895</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2896,18 +2896,18 @@
         <v>800</v>
       </c>
       <c r="B9">
-        <v>2.4317031180513902E-3</v>
+        <v>2.4316201254767902E-3</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-2.6140894483394348</v>
+        <v>-2.6141042708035758</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>-2.6140894483394348</v>
+        <v>-2.6141042708035758</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2915,18 +2915,18 @@
         <v>900</v>
       </c>
       <c r="B10">
-        <v>2.4307487882204298E-3</v>
+        <v>2.4288958155682999E-3</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-2.6142599220810006</v>
+        <v>-2.6145911133110382</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>-2.6142599220810006</v>
+        <v>-2.6145911133110382</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2934,18 +2934,18 @@
         <v>1000</v>
       </c>
       <c r="B11">
-        <v>2.42978119523151E-3</v>
+        <v>2.4265078296537498E-3</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>-2.6144328333901781</v>
+        <v>-2.6150183030011034</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>-2.6144328333901781</v>
+        <v>-2.6150183030011034</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2953,18 +2953,18 @@
         <v>1100</v>
       </c>
       <c r="B12">
-        <v>2.4289725705704201E-3</v>
+        <v>2.42416374022545E-3</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>-2.6145773894835354</v>
+        <v>-2.6154380490788904</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>-2.6145773894835354</v>
+        <v>-2.6154380490788904</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2972,18 +2972,18 @@
         <v>1200</v>
       </c>
       <c r="B13">
-        <v>2.4280733295201202E-3</v>
+        <v>2.4217969094966901E-3</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-2.6147382014003018</v>
+        <v>-2.6158622793527755</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>-2.6147382014003018</v>
+        <v>-2.6158622793527755</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2991,18 +2991,18 @@
         <v>1300</v>
       </c>
       <c r="B14">
-        <v>2.4272357369981398E-3</v>
+        <v>2.4194343295026498E-3</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>-2.614888042248332</v>
+        <v>-2.6162861614130475</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>-2.614888042248332</v>
+        <v>-2.6162861614130475</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3010,18 +3010,18 @@
         <v>1400</v>
       </c>
       <c r="B15">
-        <v>2.4264412461317301E-3</v>
+        <v>2.4171110988546198E-3</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>-2.6150302202315334</v>
+        <v>-2.6167033874447991</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>-2.6150302202315334</v>
+        <v>-2.6167033874447991</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3029,18 +3029,18 @@
         <v>1500</v>
       </c>
       <c r="B16">
-        <v>2.4256857836284498E-3</v>
+        <v>2.41464769890898E-3</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-2.6151654570862566</v>
+        <v>-2.6171462245733008</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>-2.6151654570862566</v>
+        <v>-2.6171462245733008</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3048,18 +3048,18 @@
         <v>1600</v>
       </c>
       <c r="B17">
-        <v>2.4248716579360402E-3</v>
+        <v>2.41216360963763E-3</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>-2.615311242515403</v>
+        <v>-2.6175932386740746</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>-2.615311242515403</v>
+        <v>-2.6175932386740746</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3067,18 +3067,18 @@
         <v>1700</v>
       </c>
       <c r="B18">
-        <v>2.42414511592878E-3</v>
+        <v>2.4193424823511301E-3</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>-2.6154413856770788</v>
+        <v>-2.6163026485182148</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>-2.6154413856770788</v>
+        <v>-2.6163026485182148</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3086,18 +3086,18 @@
         <v>1800</v>
       </c>
       <c r="B19">
-        <v>2.4233882188866899E-3</v>
+        <v>2.4071108126502701E-3</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>-2.6155770077300762</v>
+        <v>-2.6185039162830162</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>-2.6155770077300762</v>
+        <v>-2.6185039162830162</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3105,18 +3105,18 @@
         <v>1900</v>
       </c>
       <c r="B20">
-        <v>2.4225892694937599E-3</v>
+        <v>2.4044822646687399E-3</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>-2.6157202107542936</v>
+        <v>-2.6189784219109922</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>-2.6157202107542936</v>
+        <v>-2.6189784219109922</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3124,18 +3124,18 @@
         <v>2000</v>
       </c>
       <c r="B21">
-        <v>2.4219209044339198E-3</v>
+        <v>2.4024212341053801E-3</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>-2.6158400442354117</v>
+        <v>-2.6193508422251424</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>-2.6158400442354117</v>
+        <v>-2.6193508422251424</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3143,18 +3143,18 @@
         <v>2100</v>
       </c>
       <c r="B22">
-        <v>2.4210507997601701E-3</v>
+        <v>2.3990673730435001E-3</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>-2.6159960978676171</v>
+        <v>-2.6199575555627379</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>-2.6159960978676171</v>
+        <v>-2.6199575555627379</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3162,18 +3162,18 @@
         <v>2200</v>
       </c>
       <c r="B23">
-        <v>2.4203173662892298E-3</v>
+        <v>2.3961760873848501E-3</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>-2.6161276830314737</v>
+        <v>-2.6204812701852318</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>-2.6161276830314737</v>
+        <v>-2.6204812701852318</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3181,18 +3181,18 @@
         <v>2300</v>
       </c>
       <c r="B24">
-        <v>2.41957824767559E-3</v>
+        <v>2.3932523749189498E-3</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>-2.6162603285112418</v>
+        <v>-2.6210115014469912</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>-2.6162603285112418</v>
+        <v>-2.6210115014469912</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3200,18 +3200,18 @@
         <v>2400</v>
       </c>
       <c r="B25">
-        <v>2.41880735301032E-3</v>
+        <v>2.3904218132683101E-3</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>-2.6163987198383163</v>
+        <v>-2.621525456787873</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>-2.6163987198383163</v>
+        <v>-2.621525456787873</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3219,18 +3219,18 @@
         <v>2500</v>
       </c>
       <c r="B26">
-        <v>2.4181382891366602E-3</v>
+        <v>2.3873393612084499E-3</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>-2.6165188662165151</v>
+        <v>-2.6220858414773462</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>-2.6165188662165151</v>
+        <v>-2.6220858414773462</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3238,18 +3238,18 @@
         <v>2600</v>
       </c>
       <c r="B27">
-        <v>2.4172770165758399E-3</v>
+        <v>2.3842536552401801E-3</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>-2.6166735771982554</v>
+        <v>-2.6226475428869116</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>-2.6166735771982554</v>
+        <v>-2.6226475428869116</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3257,18 +3257,18 @@
         <v>2700</v>
       </c>
       <c r="B28">
-        <v>2.4165180557115199E-3</v>
+        <v>2.38112494779881E-3</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>-2.6168099555565161</v>
+        <v>-2.6232178147102867</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>-2.6168099555565161</v>
+        <v>-2.6232178147102867</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3276,18 +3276,18 @@
         <v>2800</v>
       </c>
       <c r="B29">
-        <v>2.4157144010942999E-3</v>
+        <v>2.3800505765098801E-3</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>-2.6169544116736225</v>
+        <v>-2.6234138140082899</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>-2.6169544116736225</v>
+        <v>-2.6234138140082899</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3295,18 +3295,18 @@
         <v>2900</v>
       </c>
       <c r="B30">
-        <v>2.4149509107986599E-3</v>
+        <v>2.3744875340123502E-3</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>-2.6170916928155501</v>
+        <v>-2.6244301061088566</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>-2.6170916928155501</v>
+        <v>-2.6244301061088566</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3314,18 +3314,18 @@
         <v>3000</v>
       </c>
       <c r="B31">
-        <v>2.4141820425722799E-3</v>
+        <v>2.3710002265258101E-3</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>-2.6172299848170639</v>
+        <v>-2.625068404529233</v>
       </c>
       <c r="D31" t="s">
         <v>30</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>-2.6172299848170639</v>
+        <v>-2.625068404529233</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3333,18 +3333,18 @@
         <v>3100</v>
       </c>
       <c r="B32">
-        <v>2.4134641419639E-3</v>
+        <v>2.3675278573594399E-3</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>-2.6173591493262909</v>
+        <v>-2.6257049021974206</v>
       </c>
       <c r="D32" t="s">
         <v>31</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>-2.6173591493262909</v>
+        <v>-2.6257049021974206</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3352,18 +3352,18 @@
         <v>3200</v>
       </c>
       <c r="B33">
-        <v>2.41266770137331E-3</v>
+        <v>2.3637753732834201E-3</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>-2.6175024896941155</v>
+        <v>-2.6263937963096393</v>
       </c>
       <c r="D33" t="s">
         <v>32</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>-2.6175024896941155</v>
+        <v>-2.6263937963096393</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3371,18 +3371,18 @@
         <v>3300</v>
       </c>
       <c r="B34">
-        <v>2.4118292643844201E-3</v>
+        <v>2.3600699862416502E-3</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>-2.6176534395502138</v>
+        <v>-2.6270751181367209</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>-2.6176534395502138</v>
+        <v>-2.6270751181367209</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3390,18 +3390,18 @@
         <v>3400</v>
       </c>
       <c r="B35">
-        <v>2.4133944135799499E-3</v>
+        <v>2.3561835220290502E-3</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>-2.61737169688783</v>
+        <v>-2.627790885574051</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>-2.61737169688783</v>
+        <v>-2.627790885574051</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3409,18 +3409,18 @@
         <v>3500</v>
       </c>
       <c r="B36">
-        <v>2.4102017784670099E-3</v>
+        <v>2.3520816768173199E-3</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>-2.6179465974224314</v>
+        <v>-2.6285476013139393</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>-2.6179465974224314</v>
+        <v>-2.6285476013139393</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3428,18 +3428,18 @@
         <v>3600</v>
       </c>
       <c r="B37">
-        <v>2.4093693837131201E-3</v>
+        <v>2.3478638569322499E-3</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>-2.6180966126166507</v>
+        <v>-2.6293270896634704</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>-2.6180966126166507</v>
+        <v>-2.6293270896634704</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3447,18 +3447,18 @@
         <v>3700</v>
       </c>
       <c r="B38">
-        <v>2.4084625209744E-3</v>
+        <v>2.3436210095989299E-3</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>-2.6182601075229539</v>
+        <v>-2.6301126173755702</v>
       </c>
       <c r="D38" t="s">
         <v>37</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>-2.6182601075229539</v>
+        <v>-2.6301126173755702</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3466,18 +3466,18 @@
         <v>3800</v>
       </c>
       <c r="B39">
-        <v>2.4075918475857301E-3</v>
+        <v>2.33933129361912E-3</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>-2.6184171359214816</v>
+        <v>-2.6309082695109849</v>
       </c>
       <c r="D39" t="s">
         <v>38</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>-2.6184171359214816</v>
+        <v>-2.6309082695109849</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3485,18 +3485,18 @@
         <v>3900</v>
       </c>
       <c r="B40">
-        <v>2.4067095912144601E-3</v>
+        <v>2.33466745429139E-3</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>-2.6185763112796625</v>
+        <v>-2.6317749707943987</v>
       </c>
       <c r="D40" t="s">
         <v>39</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>-2.6185763112796625</v>
+        <v>-2.6317749707943987</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3504,18 +3504,18 @@
         <v>4000</v>
       </c>
       <c r="B41">
-        <v>2.40580372113912E-3</v>
+        <v>2.3298893875204302E-3</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>-2.6187398077124633</v>
+        <v>-2.6326646967979337</v>
       </c>
       <c r="D41" t="s">
         <v>40</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>-2.6187398077124633</v>
+        <v>-2.6326646967979337</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3523,18 +3523,18 @@
         <v>4100</v>
       </c>
       <c r="B42">
-        <v>2.4048581376033E-3</v>
+        <v>2.32504957438006E-3</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>-2.6189105375326553</v>
+        <v>-2.6335677827094366</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>-2.6189105375326553</v>
+        <v>-2.6335677827094366</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3542,18 +3542,18 @@
         <v>4200</v>
       </c>
       <c r="B43">
-        <v>2.4038483267275301E-3</v>
+        <v>2.3199917081869002E-3</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>-2.6190929380600374</v>
+        <v>-2.6345135673052682</v>
       </c>
       <c r="D43" t="s">
         <v>42</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>-2.6190929380600374</v>
+        <v>-2.6345135673052682</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3561,18 +3561,18 @@
         <v>4300</v>
       </c>
       <c r="B44">
-        <v>2.4028849925841899E-3</v>
+        <v>2.3146280948069301E-3</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>-2.6192670149977371</v>
+        <v>-2.6355187797425073</v>
       </c>
       <c r="D44" t="s">
         <v>43</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>-2.6192670149977371</v>
+        <v>-2.6355187797425073</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3580,18 +3580,18 @@
         <v>4400</v>
       </c>
       <c r="B45">
-        <v>2.4019052054677702E-3</v>
+        <v>2.3091951601236001E-3</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>-2.6194441366311318</v>
+        <v>-2.6365393614167014</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>-2.6194441366311318</v>
+        <v>-2.6365393614167014</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3599,18 +3599,18 @@
         <v>4500</v>
       </c>
       <c r="B46">
-        <v>2.4008809421287502E-3</v>
+        <v>2.3035168346350302E-3</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>-2.6196293757441076</v>
+        <v>-2.6376086094749516</v>
       </c>
       <c r="D46" t="s">
         <v>45</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>-2.6196293757441076</v>
+        <v>-2.6376086094749516</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3618,18 +3618,18 @@
         <v>4600</v>
       </c>
       <c r="B47">
-        <v>2.3997071914702499E-3</v>
+        <v>2.2978430358965899E-3</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>-2.6198417469911668</v>
+        <v>-2.6386796409968163</v>
       </c>
       <c r="D47" t="s">
         <v>46</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>-2.6198417469911668</v>
+        <v>-2.6386796409968163</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3637,18 +3637,18 @@
         <v>4700</v>
       </c>
       <c r="B48">
-        <v>2.3985844354111399E-3</v>
+        <v>2.2917835182631398E-3</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>-2.6200449888146364</v>
+        <v>-2.6398264081985494</v>
       </c>
       <c r="D48" t="s">
         <v>47</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>-2.6200449888146364</v>
+        <v>-2.6398264081985494</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3656,18 +3656,18 @@
         <v>4800</v>
       </c>
       <c r="B49">
-        <v>2.40549524191239E-3</v>
+        <v>2.28575434474789E-3</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>-2.6187954977983061</v>
+        <v>-2.6409704460549843</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>-2.6187954977983061</v>
+        <v>-2.6409704460549843</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3675,18 +3675,18 @@
         <v>4900</v>
       </c>
       <c r="B50">
-        <v>2.3962292585431502E-3</v>
+        <v>2.27947785301054E-3</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>-2.6204716332956202</v>
+        <v>-2.64216462296719</v>
       </c>
       <c r="D50" t="s">
         <v>49</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
-        <v>-2.6204716332956202</v>
+        <v>-2.64216462296719</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3694,18 +3694,18 @@
         <v>5000</v>
       </c>
       <c r="B51">
-        <v>2.3949816092409802E-3</v>
+        <v>2.2726790367281302E-3</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>-2.620697817128677</v>
+        <v>-2.6434618939804362</v>
       </c>
       <c r="D51" t="s">
         <v>50</v>
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
-        <v>-2.620697817128677</v>
+        <v>-2.6434618939804362</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3713,18 +3713,18 @@
         <v>5100</v>
       </c>
       <c r="B52">
-        <v>2.3937400184435402E-3</v>
+        <v>2.2685092977182799E-3</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>-2.6209230196299358</v>
+        <v>-2.6442594363937908</v>
       </c>
       <c r="D52" t="s">
         <v>51</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
-        <v>-2.6209230196299358</v>
+        <v>-2.6442594363937908</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3732,18 +3732,18 @@
         <v>5200</v>
       </c>
       <c r="B53">
-        <v>2.3924275535927501E-3</v>
+        <v>2.2586311502435499E-3</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>-2.6211612044607415</v>
+        <v>-2.6461546865179608</v>
       </c>
       <c r="D53" t="s">
         <v>52</v>
       </c>
       <c r="E53">
         <f t="shared" si="1"/>
-        <v>-2.6211612044607415</v>
+        <v>-2.6461546865179608</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3751,18 +3751,18 @@
         <v>5300</v>
       </c>
       <c r="B54">
-        <v>2.3910859259160802E-3</v>
+        <v>2.2512700073921898E-3</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>-2.6214048168241311</v>
+        <v>-2.6475724145115933</v>
       </c>
       <c r="D54" t="s">
         <v>53</v>
       </c>
       <c r="E54">
         <f t="shared" si="1"/>
-        <v>-2.6214048168241311</v>
+        <v>-2.6475724145115933</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3770,18 +3770,18 @@
         <v>5400</v>
       </c>
       <c r="B55">
-        <v>2.3896054730708398E-3</v>
+        <v>2.2437424883065701E-3</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>-2.6216737957095262</v>
+        <v>-2.6490269880241093</v>
       </c>
       <c r="D55" t="s">
         <v>54</v>
       </c>
       <c r="E55">
         <f t="shared" si="1"/>
-        <v>-2.6216737957095262</v>
+        <v>-2.6490269880241093</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3789,18 +3789,18 @@
         <v>5500</v>
       </c>
       <c r="B56">
-        <v>2.3879962852662901E-3</v>
+        <v>2.2360539718528898E-3</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>-2.6219663531245807</v>
+        <v>-2.6505177180508186</v>
       </c>
       <c r="D56" t="s">
         <v>55</v>
       </c>
       <c r="E56">
         <f t="shared" si="1"/>
-        <v>-2.6219663531245807</v>
+        <v>-2.6505177180508186</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3808,18 +3808,18 @@
         <v>5600</v>
       </c>
       <c r="B57">
-        <v>2.38638457008746E-3</v>
+        <v>2.22789363831504E-3</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>-2.6222595677031242</v>
+        <v>-2.6521055466201569</v>
       </c>
       <c r="D57" t="s">
         <v>56</v>
       </c>
       <c r="E57">
         <f t="shared" si="1"/>
-        <v>-2.6222595677031242</v>
+        <v>-2.6521055466201569</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3827,18 +3827,18 @@
         <v>5700</v>
       </c>
       <c r="B58">
-        <v>2.3847637423953199E-3</v>
+        <v>2.2197806967060199E-3</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>-2.622554639876022</v>
+        <v>-2.6536899295651328</v>
       </c>
       <c r="D58" t="s">
         <v>57</v>
       </c>
       <c r="E58">
         <f t="shared" si="1"/>
-        <v>-2.622554639876022</v>
+        <v>-2.6536899295651328</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3846,18 +3846,18 @@
         <v>5800</v>
       </c>
       <c r="B59">
-        <v>2.38302714934764E-3</v>
+        <v>2.2111842308806802E-3</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>-2.6228710097959267</v>
+        <v>-2.655375071477533</v>
       </c>
       <c r="D59" t="s">
         <v>58</v>
       </c>
       <c r="E59">
         <f t="shared" si="1"/>
-        <v>-2.6228710097959267</v>
+        <v>-2.655375071477533</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3865,18 +3865,18 @@
         <v>5900</v>
       </c>
       <c r="B60">
-        <v>2.3812497647936999E-3</v>
+        <v>2.2028798311102102E-3</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>-2.6231950498774408</v>
+        <v>-2.657009193320941</v>
       </c>
       <c r="D60" t="s">
         <v>59</v>
       </c>
       <c r="E60">
         <f t="shared" si="1"/>
-        <v>-2.6231950498774408</v>
+        <v>-2.657009193320941</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3884,18 +3884,18 @@
         <v>6000</v>
       </c>
       <c r="B61">
-        <v>2.3793548458041699E-3</v>
+        <v>2.1936801960610801E-3</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>-2.6235407844937693</v>
+        <v>-2.6588266854255691</v>
       </c>
       <c r="D61" t="s">
         <v>60</v>
       </c>
       <c r="E61">
         <f t="shared" si="1"/>
-        <v>-2.6235407844937693</v>
+        <v>-2.6588266854255691</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3903,18 +3903,18 @@
         <v>6100</v>
       </c>
       <c r="B62">
-        <v>2.37737310722486E-3</v>
+        <v>2.1850832390999599E-3</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>-2.6239026543286066</v>
+        <v>-2.6605320142573015</v>
       </c>
       <c r="D62" t="s">
         <v>61</v>
       </c>
       <c r="E62">
         <f t="shared" si="1"/>
-        <v>-2.6239026543286066</v>
+        <v>-2.6605320142573015</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3922,18 +3922,18 @@
         <v>6200</v>
       </c>
       <c r="B63">
-        <v>2.3752845322263902E-3</v>
+        <v>2.1758658392419601E-3</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>-2.6242843593551743</v>
+        <v>-2.6623678861214426</v>
       </c>
       <c r="D63" t="s">
         <v>62</v>
       </c>
       <c r="E63">
         <f t="shared" si="1"/>
-        <v>-2.6242843593551743</v>
+        <v>-2.6623678861214426</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3941,18 +3941,18 @@
         <v>6300</v>
       </c>
       <c r="B64">
-        <v>2.3731330142114002E-3</v>
+        <v>2.1666609117358899E-3</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>-2.6246779188753435</v>
+        <v>-2.6642090516174219</v>
       </c>
       <c r="D64" t="s">
         <v>63</v>
       </c>
       <c r="E64">
         <f t="shared" si="1"/>
-        <v>-2.6246779188753435</v>
+        <v>-2.6642090516174219</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3960,18 +3960,18 @@
         <v>6400</v>
       </c>
       <c r="B65">
-        <v>2.3744440921590298E-3</v>
+        <v>2.1574758392124598E-3</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>-2.6244380517095376</v>
+        <v>-2.6660540590915294</v>
       </c>
       <c r="D65" t="s">
         <v>64</v>
       </c>
       <c r="E65">
         <f t="shared" si="1"/>
-        <v>-2.6244380517095376</v>
+        <v>-2.6660540590915294</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3979,18 +3979,18 @@
         <v>6500</v>
       </c>
       <c r="B66">
-        <v>2.3685433035578198E-3</v>
+        <v>2.14818268600381E-3</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>-2.6255186707526641</v>
+        <v>-2.6679287880797076</v>
       </c>
       <c r="D66" t="s">
         <v>65</v>
       </c>
       <c r="E66">
         <f t="shared" si="1"/>
-        <v>-2.6255186707526641</v>
+        <v>-2.6679287880797076</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3998,18 +3998,18 @@
         <v>6600</v>
       </c>
       <c r="B67">
-        <v>2.36610977256883E-3</v>
+        <v>2.1386981033813999E-3</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C130" si="2">LOG10(B67)</f>
-        <v>-2.6259651107161135</v>
+        <v>-2.6698505157038128</v>
       </c>
       <c r="D67" t="s">
         <v>66</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" si="3">LOG10(B67)</f>
-        <v>-2.6259651107161135</v>
+        <v>-2.6698505157038128</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4017,18 +4017,18 @@
         <v>6700</v>
       </c>
       <c r="B68">
-        <v>2.36355868114338E-3</v>
+        <v>2.1292425161899601E-3</v>
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
-        <v>-2.6264336108011364</v>
+        <v>-2.6717748705274893</v>
       </c>
       <c r="D68" t="s">
         <v>67</v>
       </c>
       <c r="E68">
         <f t="shared" si="3"/>
-        <v>-2.6264336108011364</v>
+        <v>-2.6717748705274893</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4036,18 +4036,18 @@
         <v>6800</v>
       </c>
       <c r="B69">
-        <v>2.36086459410715E-3</v>
+        <v>2.11966874002941E-3</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
-        <v>-2.6269289208918112</v>
+        <v>-2.673732004928898</v>
       </c>
       <c r="D69" t="s">
         <v>68</v>
       </c>
       <c r="E69">
         <f t="shared" si="3"/>
-        <v>-2.6269289208918112</v>
+        <v>-2.673732004928898</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4055,18 +4055,18 @@
         <v>6900</v>
       </c>
       <c r="B70">
-        <v>2.3579588826933501E-3</v>
+        <v>2.1104289587507898E-3</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
-        <v>-2.6274637722583511</v>
+        <v>-2.6756292624822322</v>
       </c>
       <c r="D70" t="s">
         <v>69</v>
       </c>
       <c r="E70">
         <f t="shared" si="3"/>
-        <v>-2.6274637722583511</v>
+        <v>-2.6756292624822322</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4074,18 +4074,18 @@
         <v>7000</v>
       </c>
       <c r="B71">
-        <v>2.3548432711498301E-3</v>
+        <v>2.1010390644246898E-3</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
-        <v>-2.6280379924585873</v>
+        <v>-2.6775658727219094</v>
       </c>
       <c r="D71" t="s">
         <v>70</v>
       </c>
       <c r="E71">
         <f t="shared" si="3"/>
-        <v>-2.6280379924585873</v>
+        <v>-2.6775658727219094</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4093,18 +4093,18 @@
         <v>7100</v>
       </c>
       <c r="B72">
-        <v>2.3516977116016398E-3</v>
+        <v>2.10537842892015E-3</v>
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>-2.6286185034379606</v>
+        <v>-2.6766698310299706</v>
       </c>
       <c r="D72" t="s">
         <v>71</v>
       </c>
       <c r="E72">
         <f t="shared" si="3"/>
-        <v>-2.6286185034379606</v>
+        <v>-2.6766698310299706</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4112,18 +4112,18 @@
         <v>7200</v>
       </c>
       <c r="B73">
-        <v>2.3483793689486202E-3</v>
+        <v>2.0825532400668002E-3</v>
       </c>
       <c r="C73">
         <f t="shared" si="2"/>
-        <v>-2.6292317436542478</v>
+        <v>-2.6814038871256543</v>
       </c>
       <c r="D73" t="s">
         <v>72</v>
       </c>
       <c r="E73">
         <f t="shared" si="3"/>
-        <v>-2.6292317436542478</v>
+        <v>-2.6814038871256543</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4131,18 +4131,18 @@
         <v>7300</v>
       </c>
       <c r="B74">
-        <v>2.3450360784447702E-3</v>
+        <v>2.0734335384703598E-3</v>
       </c>
       <c r="C74">
         <f t="shared" si="2"/>
-        <v>-2.6298504712649118</v>
+        <v>-2.6833098808874607</v>
       </c>
       <c r="D74" t="s">
         <v>73</v>
       </c>
       <c r="E74">
         <f t="shared" si="3"/>
-        <v>-2.6298504712649118</v>
+        <v>-2.6833098808874607</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4150,18 +4150,18 @@
         <v>7400</v>
       </c>
       <c r="B75">
-        <v>2.34141063187815E-3</v>
+        <v>2.0660011846597502E-3</v>
       </c>
       <c r="C75">
         <f t="shared" si="2"/>
-        <v>-2.6305224139326668</v>
+        <v>-2.6848694337887871</v>
       </c>
       <c r="D75" t="s">
         <v>74</v>
       </c>
       <c r="E75">
         <f t="shared" si="3"/>
-        <v>-2.6305224139326668</v>
+        <v>-2.6848694337887871</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4169,18 +4169,18 @@
         <v>7500</v>
       </c>
       <c r="B76">
-        <v>2.3374349301348899E-3</v>
+        <v>2.05632359195974E-3</v>
       </c>
       <c r="C76">
         <f t="shared" si="2"/>
-        <v>-2.6312604702422671</v>
+        <v>-2.6869085418438878</v>
       </c>
       <c r="D76" t="s">
         <v>75</v>
       </c>
       <c r="E76">
         <f t="shared" si="3"/>
-        <v>-2.6312604702422671</v>
+        <v>-2.6869085418438878</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4188,18 +4188,18 @@
         <v>7600</v>
       </c>
       <c r="B77">
-        <v>2.33358953515339E-3</v>
+        <v>2.0479150396706001E-3</v>
       </c>
       <c r="C77">
         <f t="shared" si="2"/>
-        <v>-2.6319755314503137</v>
+        <v>-2.68868806457492</v>
       </c>
       <c r="D77" t="s">
         <v>76</v>
       </c>
       <c r="E77">
         <f t="shared" si="3"/>
-        <v>-2.6319755314503137</v>
+        <v>-2.68868806457492</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4207,18 +4207,18 @@
         <v>7700</v>
       </c>
       <c r="B78">
-        <v>2.3295766876540798E-3</v>
+        <v>2.04017232600422E-3</v>
       </c>
       <c r="C78">
         <f t="shared" si="2"/>
-        <v>-2.6327229883809009</v>
+        <v>-2.6903331477349397</v>
       </c>
       <c r="D78" t="s">
         <v>77</v>
       </c>
       <c r="E78">
         <f t="shared" si="3"/>
-        <v>-2.6327229883809009</v>
+        <v>-2.6903331477349397</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4226,18 +4226,18 @@
         <v>7800</v>
       </c>
       <c r="B79">
-        <v>2.3253125551676202E-3</v>
+        <v>2.0316373090927199E-3</v>
       </c>
       <c r="C79">
         <f t="shared" si="2"/>
-        <v>-2.6335186634787942</v>
+        <v>-2.6921538203638602</v>
       </c>
       <c r="D79" t="s">
         <v>78</v>
       </c>
       <c r="E79">
         <f t="shared" si="3"/>
-        <v>-2.6335186634787942</v>
+        <v>-2.6921538203638602</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4245,18 +4245,18 @@
         <v>7900</v>
       </c>
       <c r="B80">
-        <v>2.32093489327183E-3</v>
+        <v>2.0240825678127599E-3</v>
       </c>
       <c r="C80">
         <f t="shared" si="2"/>
-        <v>-2.6343370421762953</v>
+        <v>-2.6937717754221264</v>
       </c>
       <c r="D80" t="s">
         <v>79</v>
       </c>
       <c r="E80">
         <f t="shared" si="3"/>
-        <v>-2.6343370421762953</v>
+        <v>-2.6937717754221264</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4264,18 +4264,18 @@
         <v>8000</v>
       </c>
       <c r="B81">
-        <v>2.3164273380711599E-3</v>
+        <v>2.0164128590886899E-3</v>
       </c>
       <c r="C81">
         <f t="shared" si="2"/>
-        <v>-2.6351813182407402</v>
+        <v>-2.6954205416378478</v>
       </c>
       <c r="D81" t="s">
         <v>80</v>
       </c>
       <c r="E81">
         <f t="shared" si="3"/>
-        <v>-2.6351813182407402</v>
+        <v>-2.6954205416378478</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4283,18 +4283,18 @@
         <v>8100</v>
       </c>
       <c r="B82">
-        <v>2.3116869229853699E-3</v>
+        <v>2.00951217854402E-3</v>
       </c>
       <c r="C82">
         <f t="shared" si="2"/>
-        <v>-2.6360709837578455</v>
+        <v>-2.6969093574448557</v>
       </c>
       <c r="D82" t="s">
         <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" si="3"/>
-        <v>-2.6360709837578455</v>
+        <v>-2.6969093574448557</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4302,18 +4302,18 @@
         <v>8200</v>
       </c>
       <c r="B83">
-        <v>2.3066508526930901E-3</v>
+        <v>2.0022478224428599E-3</v>
       </c>
       <c r="C83">
         <f t="shared" si="2"/>
-        <v>-2.6370181376957098</v>
+        <v>-2.6984821699843309</v>
       </c>
       <c r="D83" t="s">
         <v>82</v>
       </c>
       <c r="E83">
         <f t="shared" si="3"/>
-        <v>-2.6370181376957098</v>
+        <v>-2.6984821699843309</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4321,18 +4321,18 @@
         <v>8300</v>
       </c>
       <c r="B84">
-        <v>2.3015632169194498E-3</v>
+        <v>1.9953643786785602E-3</v>
       </c>
       <c r="C84">
         <f t="shared" si="2"/>
-        <v>-2.6379770918618046</v>
+        <v>-2.699977785090248</v>
       </c>
       <c r="D84" t="s">
         <v>83</v>
       </c>
       <c r="E84">
         <f t="shared" si="3"/>
-        <v>-2.6379770918618046</v>
+        <v>-2.699977785090248</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4340,18 +4340,18 @@
         <v>8400</v>
       </c>
       <c r="B85">
-        <v>2.2962614366073102E-3</v>
+        <v>1.9887617398273599E-3</v>
       </c>
       <c r="C85">
         <f t="shared" si="2"/>
-        <v>-2.6389786676624758</v>
+        <v>-2.7014172436610417</v>
       </c>
       <c r="D85" t="s">
         <v>84</v>
       </c>
       <c r="E85">
         <f t="shared" si="3"/>
-        <v>-2.6389786676624758</v>
+        <v>-2.7014172436610417</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4359,18 +4359,18 @@
         <v>8500</v>
       </c>
       <c r="B86">
-        <v>2.2906661373598802E-3</v>
+        <v>1.98250372437438E-3</v>
       </c>
       <c r="C86">
         <f t="shared" si="2"/>
-        <v>-2.6400382042493766</v>
+        <v>-2.7027859881345844</v>
       </c>
       <c r="D86" t="s">
         <v>85</v>
       </c>
       <c r="E86">
         <f t="shared" si="3"/>
-        <v>-2.6400382042493766</v>
+        <v>-2.7027859881345844</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4378,18 +4378,18 @@
         <v>8600</v>
       </c>
       <c r="B87">
-        <v>2.28488916620802E-3</v>
+        <v>1.97617083863868E-3</v>
       </c>
       <c r="C87">
         <f t="shared" si="2"/>
-        <v>-2.6411348615335988</v>
+        <v>-2.7041755136598487</v>
       </c>
       <c r="D87" t="s">
         <v>86</v>
       </c>
       <c r="E87">
         <f t="shared" si="3"/>
-        <v>-2.6411348615335988</v>
+        <v>-2.7041755136598487</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4397,18 +4397,18 @@
         <v>8700</v>
       </c>
       <c r="B88">
-        <v>2.27882638339846E-3</v>
+        <v>1.9701238888866698E-3</v>
       </c>
       <c r="C88">
         <f t="shared" si="2"/>
-        <v>-2.64228876108738</v>
+        <v>-2.70550646289013</v>
       </c>
       <c r="D88" t="s">
         <v>87</v>
       </c>
       <c r="E88">
         <f t="shared" si="3"/>
-        <v>-2.64228876108738</v>
+        <v>-2.70550646289013</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4416,18 +4416,18 @@
         <v>8800</v>
       </c>
       <c r="B89">
-        <v>2.2722726792979101E-3</v>
+        <v>1.9642664667903899E-3</v>
       </c>
       <c r="C89">
         <f t="shared" si="2"/>
-        <v>-2.6435395532389374</v>
+        <v>-2.7067995974009755</v>
       </c>
       <c r="D89" t="s">
         <v>88</v>
       </c>
       <c r="E89">
         <f t="shared" si="3"/>
-        <v>-2.6435395532389374</v>
+        <v>-2.7067995974009755</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4435,18 +4435,18 @@
         <v>8900</v>
       </c>
       <c r="B90">
-        <v>2.2659398498198501E-3</v>
+        <v>1.9585237581265401E-3</v>
       </c>
       <c r="C90">
         <f t="shared" si="2"/>
-        <v>-2.6447516228212722</v>
+        <v>-2.7080711558186046</v>
       </c>
       <c r="D90" t="s">
         <v>89</v>
       </c>
       <c r="E90">
         <f t="shared" si="3"/>
-        <v>-2.6447516228212722</v>
+        <v>-2.7080711558186046</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4454,18 +4454,18 @@
         <v>9000</v>
       </c>
       <c r="B91">
-        <v>2.2592099129007301E-3</v>
+        <v>1.95276931313808E-3</v>
       </c>
       <c r="C91">
         <f t="shared" si="2"/>
-        <v>-2.6460434150384171</v>
+        <v>-2.7093490582731254</v>
       </c>
       <c r="D91" t="s">
         <v>90</v>
       </c>
       <c r="E91">
         <f t="shared" si="3"/>
-        <v>-2.6460434150384171</v>
+        <v>-2.7093490582731254</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4473,18 +4473,18 @@
         <v>9100</v>
       </c>
       <c r="B92">
-        <v>2.25193745446353E-3</v>
+        <v>1.94706723706742E-3</v>
       </c>
       <c r="C92">
         <f t="shared" si="2"/>
-        <v>-2.6474436757916369</v>
+        <v>-2.710619050953945</v>
       </c>
       <c r="D92" t="s">
         <v>91</v>
       </c>
       <c r="E92">
         <f t="shared" si="3"/>
-        <v>-2.6474436757916369</v>
+        <v>-2.710619050953945</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4492,18 +4492,18 @@
         <v>9200</v>
       </c>
       <c r="B93">
-        <v>2.2446123666916501E-3</v>
+        <v>1.94171718104976E-3</v>
       </c>
       <c r="C93">
         <f t="shared" si="2"/>
-        <v>-2.6488586486661476</v>
+        <v>-2.711814026567116</v>
       </c>
       <c r="D93" t="s">
         <v>92</v>
       </c>
       <c r="E93">
         <f t="shared" si="3"/>
-        <v>-2.6488586486661476</v>
+        <v>-2.711814026567116</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4511,18 +4511,18 @@
         <v>9300</v>
       </c>
       <c r="B94">
-        <v>2.2371268738015102E-3</v>
+        <v>1.9362974305077701E-3</v>
       </c>
       <c r="C94">
         <f t="shared" si="2"/>
-        <v>-2.6503093851347477</v>
+        <v>-2.7130279308567493</v>
       </c>
       <c r="D94" t="s">
         <v>93</v>
       </c>
       <c r="E94">
         <f t="shared" si="3"/>
-        <v>-2.6503093851347477</v>
+        <v>-2.7130279308567493</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4530,18 +4530,18 @@
         <v>9400</v>
       </c>
       <c r="B95">
-        <v>2.2293926849343902E-3</v>
+        <v>1.93107429097467E-3</v>
       </c>
       <c r="C95">
         <f t="shared" si="2"/>
-        <v>-2.651813428208984</v>
+        <v>-2.7142010180177447</v>
       </c>
       <c r="D95" t="s">
         <v>94</v>
       </c>
       <c r="E95">
         <f t="shared" si="3"/>
-        <v>-2.651813428208984</v>
+        <v>-2.7142010180177447</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4549,18 +4549,18 @@
         <v>9500</v>
       </c>
       <c r="B96">
-        <v>2.2218485930515599E-3</v>
+        <v>1.92558232372107E-3</v>
       </c>
       <c r="C96">
         <f t="shared" si="2"/>
-        <v>-2.653285539203706</v>
+        <v>-2.7154379094102361</v>
       </c>
       <c r="D96" t="s">
         <v>95</v>
       </c>
       <c r="E96">
         <f t="shared" si="3"/>
-        <v>-2.653285539203706</v>
+        <v>-2.7154379094102361</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4568,18 +4568,18 @@
         <v>9600</v>
       </c>
       <c r="B97">
-        <v>2.2140690739254399E-3</v>
+        <v>1.9202942940123901E-3</v>
       </c>
       <c r="C97">
         <f t="shared" si="2"/>
-        <v>-2.6548088342446872</v>
+        <v>-2.7166322085509402</v>
       </c>
       <c r="D97" t="s">
         <v>96</v>
       </c>
       <c r="E97">
         <f t="shared" si="3"/>
-        <v>-2.6548088342446872</v>
+        <v>-2.7166322085509402</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4587,18 +4587,18 @@
         <v>9700</v>
       </c>
       <c r="B98">
-        <v>2.2057624345870599E-3</v>
+        <v>1.91501593038401E-3</v>
       </c>
       <c r="C98">
         <f t="shared" si="2"/>
-        <v>-2.6564412638376815</v>
+        <v>-2.7178276089282076</v>
       </c>
       <c r="D98" t="s">
         <v>97</v>
       </c>
       <c r="E98">
         <f t="shared" si="3"/>
-        <v>-2.6564412638376815</v>
+        <v>-2.7178276089282076</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4606,18 +4606,18 @@
         <v>9800</v>
       </c>
       <c r="B99">
-        <v>2.1975057746435899E-3</v>
+        <v>1.9098678423573E-3</v>
       </c>
       <c r="C99">
         <f t="shared" si="2"/>
-        <v>-2.6580699750061583</v>
+        <v>-2.7189966837055293</v>
       </c>
       <c r="D99" t="s">
         <v>98</v>
       </c>
       <c r="E99">
         <f t="shared" si="3"/>
-        <v>-2.6580699750061583</v>
+        <v>-2.7189966837055293</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4625,18 +4625,18 @@
         <v>9900</v>
       </c>
       <c r="B100">
-        <v>2.18906164653397E-3</v>
+        <v>1.9045181833828599E-3</v>
       </c>
       <c r="C100">
         <f t="shared" si="2"/>
-        <v>-2.6597420080197556</v>
+        <v>-2.7202148765577001</v>
       </c>
       <c r="D100" t="s">
         <v>99</v>
       </c>
       <c r="E100">
         <f t="shared" si="3"/>
-        <v>-2.6597420080197556</v>
+        <v>-2.7202148765577001</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4644,18 +4644,18 @@
         <v>10000</v>
       </c>
       <c r="B101">
-        <v>2.1803156077067902E-3</v>
+        <v>1.89936701430704E-3</v>
       </c>
       <c r="C101">
         <f t="shared" si="2"/>
-        <v>-2.6614806363198884</v>
+        <v>-2.7213911085185565</v>
       </c>
       <c r="D101" t="s">
         <v>100</v>
       </c>
       <c r="E101">
         <f t="shared" si="3"/>
-        <v>-2.6614806363198884</v>
+        <v>-2.7213911085185565</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4663,18 +4663,18 @@
         <v>10100</v>
       </c>
       <c r="B102">
-        <v>2.1721192308407698E-3</v>
+        <v>1.8941129911398699E-3</v>
       </c>
       <c r="C102">
         <f t="shared" si="2"/>
-        <v>-2.6631163393617281</v>
+        <v>-2.7225941172203534</v>
       </c>
       <c r="D102" t="s">
         <v>101</v>
       </c>
       <c r="E102">
         <f t="shared" si="3"/>
-        <v>-2.6631163393617281</v>
+        <v>-2.7225941172203534</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4682,18 +4682,18 @@
         <v>10200</v>
       </c>
       <c r="B103">
-        <v>2.1640251443698498E-3</v>
+        <v>1.8888474488042001E-3</v>
       </c>
       <c r="C103">
         <f t="shared" si="2"/>
-        <v>-2.6647376973558403</v>
+        <v>-2.7238031160950382</v>
       </c>
       <c r="D103" t="s">
         <v>102</v>
       </c>
       <c r="E103">
         <f t="shared" si="3"/>
-        <v>-2.6647376973558403</v>
+        <v>-2.7238031160950382</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4701,18 +4701,18 @@
         <v>10300</v>
       </c>
       <c r="B104">
-        <v>2.15586826336243E-3</v>
+        <v>1.88366355289311E-3</v>
       </c>
       <c r="C104">
         <f t="shared" si="2"/>
-        <v>-2.6663777807036388</v>
+        <v>-2.7249966653278648</v>
       </c>
       <c r="D104" t="s">
         <v>103</v>
       </c>
       <c r="E104">
         <f t="shared" si="3"/>
-        <v>-2.6663777807036388</v>
+        <v>-2.7249966653278648</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4720,18 +4720,18 @@
         <v>10400</v>
       </c>
       <c r="B105">
-        <v>2.14744839209734E-3</v>
+        <v>1.8783779258501501E-3</v>
       </c>
       <c r="C105">
         <f t="shared" si="2"/>
-        <v>-2.6680772644218251</v>
+        <v>-2.7262170241046486</v>
       </c>
       <c r="D105" t="s">
         <v>104</v>
       </c>
       <c r="E105">
         <f t="shared" si="3"/>
-        <v>-2.6680772644218251</v>
+        <v>-2.7262170241046486</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4739,18 +4739,18 @@
         <v>10500</v>
       </c>
       <c r="B106">
-        <v>2.1389530150046402E-3</v>
+        <v>1.8733347914463301E-3</v>
       </c>
       <c r="C106">
         <f t="shared" si="2"/>
-        <v>-2.6697987551892624</v>
+        <v>-2.7273846011166962</v>
       </c>
       <c r="D106" t="s">
         <v>105</v>
       </c>
       <c r="E106">
         <f t="shared" si="3"/>
-        <v>-2.6697987551892624</v>
+        <v>-2.7273846011166962</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4758,18 +4758,18 @@
         <v>10600</v>
       </c>
       <c r="B107">
-        <v>2.1307839285367798E-3</v>
+        <v>1.86800393097288E-3</v>
       </c>
       <c r="C107">
         <f t="shared" si="2"/>
-        <v>-2.6714605875461692</v>
+        <v>-2.7286222141883485</v>
       </c>
       <c r="D107" t="s">
         <v>106</v>
       </c>
       <c r="E107">
         <f t="shared" si="3"/>
-        <v>-2.6714605875461692</v>
+        <v>-2.7286222141883485</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4777,18 +4777,18 @@
         <v>10700</v>
       </c>
       <c r="B108">
-        <v>2.1220995777760901E-3</v>
+        <v>1.86283966595327E-3</v>
       </c>
       <c r="C108">
         <f t="shared" si="2"/>
-        <v>-2.6732342410454146</v>
+        <v>-2.729824523089952</v>
       </c>
       <c r="D108" t="s">
         <v>107</v>
       </c>
       <c r="E108">
         <f t="shared" si="3"/>
-        <v>-2.6732342410454146</v>
+        <v>-2.729824523089952</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4796,18 +4796,18 @@
         <v>10800</v>
       </c>
       <c r="B109">
-        <v>2.11386000875386E-3</v>
+        <v>1.85757520675715E-3</v>
       </c>
       <c r="C109">
         <f t="shared" si="2"/>
-        <v>-2.6749237774064714</v>
+        <v>-2.7310535941388863</v>
       </c>
       <c r="D109" t="s">
         <v>108</v>
       </c>
       <c r="E109">
         <f t="shared" si="3"/>
-        <v>-2.6749237774064714</v>
+        <v>-2.7310535941388863</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4815,18 +4815,18 @@
         <v>10900</v>
       </c>
       <c r="B110">
-        <v>2.10575973453624E-3</v>
+        <v>1.85244782083505E-3</v>
       </c>
       <c r="C110">
         <f t="shared" si="2"/>
-        <v>-2.676591182969037</v>
+        <v>-2.7322540162461029</v>
       </c>
       <c r="D110" t="s">
         <v>109</v>
       </c>
       <c r="E110">
         <f t="shared" si="3"/>
-        <v>-2.676591182969037</v>
+        <v>-2.7322540162461029</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4834,18 +4834,18 @@
         <v>11000</v>
       </c>
       <c r="B111">
-        <v>2.1153592780122402E-3</v>
+        <v>1.84715230710576E-3</v>
       </c>
       <c r="C111">
         <f t="shared" si="2"/>
-        <v>-2.674615860342386</v>
+        <v>-2.7334972932936683</v>
       </c>
       <c r="D111" t="s">
         <v>110</v>
       </c>
       <c r="E111">
         <f t="shared" si="3"/>
-        <v>-2.674615860342386</v>
+        <v>-2.7334972932936683</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4853,18 +4853,18 @@
         <v>11100</v>
       </c>
       <c r="B112">
-        <v>2.0900607030276798E-3</v>
+        <v>1.84183648772124E-3</v>
       </c>
       <c r="C112">
         <f t="shared" si="2"/>
-        <v>-2.6798411002013318</v>
+        <v>-2.7347489276855459</v>
       </c>
       <c r="D112" t="s">
         <v>111</v>
       </c>
       <c r="E112">
         <f t="shared" si="3"/>
-        <v>-2.6798411002013318</v>
+        <v>-2.7347489276855459</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4872,18 +4872,18 @@
         <v>11200</v>
       </c>
       <c r="B113">
-        <v>2.0828025533250502E-3</v>
+        <v>1.83671315231084E-3</v>
       </c>
       <c r="C113">
         <f t="shared" si="2"/>
-        <v>-2.6813518985907856</v>
+        <v>-2.7359586641056595</v>
       </c>
       <c r="D113" t="s">
         <v>112</v>
       </c>
       <c r="E113">
         <f t="shared" si="3"/>
-        <v>-2.6813518985907856</v>
+        <v>-2.7359586641056595</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4891,18 +4891,18 @@
         <v>11300</v>
       </c>
       <c r="B114">
-        <v>2.07587453010669E-3</v>
+        <v>1.8318240985181801E-3</v>
       </c>
       <c r="C114">
         <f t="shared" si="2"/>
-        <v>-2.682798899633331</v>
+        <v>-2.7371162319294284</v>
       </c>
       <c r="D114" t="s">
         <v>113</v>
       </c>
       <c r="E114">
         <f t="shared" si="3"/>
-        <v>-2.682798899633331</v>
+        <v>-2.7371162319294284</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4910,18 +4910,18 @@
         <v>11400</v>
       </c>
       <c r="B115">
-        <v>2.0690914170770798E-3</v>
+        <v>1.83219666058083E-3</v>
       </c>
       <c r="C115">
         <f t="shared" si="2"/>
-        <v>-2.6842203208107978</v>
+        <v>-2.7370279127526711</v>
       </c>
       <c r="D115" t="s">
         <v>114</v>
       </c>
       <c r="E115">
         <f t="shared" si="3"/>
-        <v>-2.6842203208107978</v>
+        <v>-2.7370279127526711</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4929,18 +4929,18 @@
         <v>11500</v>
       </c>
       <c r="B116">
-        <v>2.0625697005841799E-3</v>
+        <v>1.82132518049625E-3</v>
       </c>
       <c r="C116">
         <f t="shared" si="2"/>
-        <v>-2.6855913663816149</v>
+        <v>-2.7396125080835665</v>
       </c>
       <c r="D116" t="s">
         <v>115</v>
       </c>
       <c r="E116">
         <f t="shared" si="3"/>
-        <v>-2.6855913663816149</v>
+        <v>-2.7396125080835665</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4948,18 +4948,18 @@
         <v>11600</v>
       </c>
       <c r="B117">
-        <v>2.0562153858733599E-3</v>
+        <v>1.8163720459597201E-3</v>
       </c>
       <c r="C117">
         <f t="shared" si="2"/>
-        <v>-2.6869313955148137</v>
+        <v>-2.7407951905295271</v>
       </c>
       <c r="D117" t="s">
         <v>116</v>
       </c>
       <c r="E117">
         <f t="shared" si="3"/>
-        <v>-2.6869313955148137</v>
+        <v>-2.7407951905295271</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4967,18 +4967,18 @@
         <v>11700</v>
       </c>
       <c r="B118">
-        <v>2.0495666314009702E-3</v>
+        <v>1.8112216077340901E-3</v>
       </c>
       <c r="C118">
         <f t="shared" si="2"/>
-        <v>-2.6883379582065299</v>
+        <v>-2.742028409361243</v>
       </c>
       <c r="D118" t="s">
         <v>117</v>
       </c>
       <c r="E118">
         <f t="shared" si="3"/>
-        <v>-2.6883379582065299</v>
+        <v>-2.742028409361243</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4986,18 +4986,18 @@
         <v>11800</v>
       </c>
       <c r="B119">
-        <v>2.04305649928934E-3</v>
+        <v>1.8062318020570199E-3</v>
       </c>
       <c r="C119">
         <f t="shared" si="2"/>
-        <v>-2.6897196230932954</v>
+        <v>-2.7432265154321276</v>
       </c>
       <c r="D119" t="s">
         <v>118</v>
       </c>
       <c r="E119">
         <f t="shared" si="3"/>
-        <v>-2.6897196230932954</v>
+        <v>-2.7432265154321276</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5005,18 +5005,18 @@
         <v>11900</v>
       </c>
       <c r="B120">
-        <v>2.0371318804849299E-3</v>
+        <v>1.80112759946894E-3</v>
       </c>
       <c r="C120">
         <f t="shared" si="2"/>
-        <v>-2.6909808545968446</v>
+        <v>-2.7444555188393975</v>
       </c>
       <c r="D120" t="s">
         <v>119</v>
       </c>
       <c r="E120">
         <f t="shared" si="3"/>
-        <v>-2.6909808545968446</v>
+        <v>-2.7444555188393975</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5024,18 +5024,18 @@
         <v>12000</v>
       </c>
       <c r="B121">
-        <v>2.03137919199705E-3</v>
+        <v>1.79690881226206E-3</v>
       </c>
       <c r="C121">
         <f t="shared" si="2"/>
-        <v>-2.6922090004648784</v>
+        <v>-2.7454739614754655</v>
       </c>
       <c r="D121" t="s">
         <v>120</v>
       </c>
       <c r="E121">
         <f t="shared" si="3"/>
-        <v>-2.6922090004648784</v>
+        <v>-2.7454739614754655</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5043,18 +5043,18 @@
         <v>12100</v>
       </c>
       <c r="B122">
-        <v>2.0257124002963402E-3</v>
+        <v>1.7911513012319801E-3</v>
       </c>
       <c r="C122">
         <f t="shared" si="2"/>
-        <v>-2.6934222133836361</v>
+        <v>-2.7468677270963648</v>
       </c>
       <c r="D122" t="s">
         <v>121</v>
       </c>
       <c r="E122">
         <f t="shared" si="3"/>
-        <v>-2.6934222133836361</v>
+        <v>-2.7468677270963648</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5062,18 +5062,18 @@
         <v>12200</v>
       </c>
       <c r="B123">
-        <v>2.0203383198793699E-3</v>
+        <v>1.78630407881456E-3</v>
       </c>
       <c r="C123">
         <f t="shared" si="2"/>
-        <v>-2.6945758987940831</v>
+        <v>-2.7480446101112679</v>
       </c>
       <c r="D123" t="s">
         <v>122</v>
       </c>
       <c r="E123">
         <f t="shared" si="3"/>
-        <v>-2.6945758987940831</v>
+        <v>-2.7480446101112679</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5081,18 +5081,18 @@
         <v>12300</v>
       </c>
       <c r="B124">
-        <v>2.0152522757679501E-3</v>
+        <v>1.78152447510196E-3</v>
       </c>
       <c r="C124">
         <f t="shared" si="2"/>
-        <v>-2.6956705797382603</v>
+        <v>-2.749208206807936</v>
       </c>
       <c r="D124" t="s">
         <v>123</v>
       </c>
       <c r="E124">
         <f t="shared" si="3"/>
-        <v>-2.6956705797382603</v>
+        <v>-2.749208206807936</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5100,18 +5100,18 @@
         <v>12400</v>
       </c>
       <c r="B125">
-        <v>2.0102930707818099E-3</v>
+        <v>1.77664374331538E-3</v>
       </c>
       <c r="C125">
         <f t="shared" si="2"/>
-        <v>-2.6967406242983154</v>
+        <v>-2.7503996491916998</v>
       </c>
       <c r="D125" t="s">
         <v>124</v>
       </c>
       <c r="E125">
         <f t="shared" si="3"/>
-        <v>-2.6967406242983154</v>
+        <v>-2.7503996491916998</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5119,18 +5119,18 @@
         <v>12500</v>
       </c>
       <c r="B126">
-        <v>2.0056927652498499E-3</v>
+        <v>1.7718733553277401E-3</v>
       </c>
       <c r="C126">
         <f t="shared" si="2"/>
-        <v>-2.6977355920412434</v>
+        <v>-2.7515673225437083</v>
       </c>
       <c r="D126" t="s">
         <v>125</v>
       </c>
       <c r="E126">
         <f t="shared" si="3"/>
-        <v>-2.6977355920412434</v>
+        <v>-2.7515673225437083</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5138,18 +5138,18 @@
         <v>12600</v>
       </c>
       <c r="B127">
-        <v>2.0015095897200998E-3</v>
+        <v>1.76704080923127E-3</v>
       </c>
       <c r="C127">
         <f t="shared" si="2"/>
-        <v>-2.6986423247432154</v>
+        <v>-2.7527534204879762</v>
       </c>
       <c r="D127" t="s">
         <v>126</v>
       </c>
       <c r="E127">
         <f t="shared" si="3"/>
-        <v>-2.6986423247432154</v>
+        <v>-2.7527534204879762</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5157,18 +5157,18 @@
         <v>12700</v>
       </c>
       <c r="B128">
-        <v>1.9976094419013098E-3</v>
+        <v>1.76230693066461E-3</v>
       </c>
       <c r="C128">
         <f t="shared" si="2"/>
-        <v>-2.6994894179154456</v>
+        <v>-2.7539184508130732</v>
       </c>
       <c r="D128" t="s">
         <v>127</v>
       </c>
       <c r="E128">
         <f t="shared" si="3"/>
-        <v>-2.6994894179154456</v>
+        <v>-2.7539184508130732</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5176,18 +5176,18 @@
         <v>12800</v>
       </c>
       <c r="B129">
-        <v>1.9938703357968201E-3</v>
+        <v>1.75754311108269E-3</v>
       </c>
       <c r="C129">
         <f t="shared" si="2"/>
-        <v>-2.7003030878894285</v>
+        <v>-2.7550940132920982</v>
       </c>
       <c r="D129" t="s">
         <v>128</v>
       </c>
       <c r="E129">
         <f t="shared" si="3"/>
-        <v>-2.7003030878894285</v>
+        <v>-2.7550940132920982</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5195,18 +5195,18 @@
         <v>12900</v>
       </c>
       <c r="B130">
-        <v>1.9903678308055999E-3</v>
+        <v>1.7528498558351301E-3</v>
       </c>
       <c r="C130">
         <f t="shared" si="2"/>
-        <v>-2.7010666561896954</v>
+        <v>-2.7562552827510012</v>
       </c>
       <c r="D130" t="s">
         <v>129</v>
       </c>
       <c r="E130">
         <f t="shared" si="3"/>
-        <v>-2.7010666561896954</v>
+        <v>-2.7562552827510012</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5214,18 +5214,18 @@
         <v>13000</v>
       </c>
       <c r="B131">
-        <v>1.9870472698701601E-3</v>
+        <v>1.7478247956117399E-3</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:C194" si="4">LOG10(B131)</f>
-        <v>-2.7017918013352848</v>
+        <v>-2.7575021038026444</v>
       </c>
       <c r="D131" t="s">
         <v>130</v>
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E194" si="5">LOG10(B131)</f>
-        <v>-2.7017918013352848</v>
+        <v>-2.7575021038026444</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5233,18 +5233,18 @@
         <v>13100</v>
       </c>
       <c r="B132">
-        <v>1.9837802203178101E-3</v>
+        <v>1.74316374936329E-3</v>
       </c>
       <c r="C132">
         <f t="shared" si="4"/>
-        <v>-2.7025064442737441</v>
+        <v>-2.7586618142069517</v>
       </c>
       <c r="D132" t="s">
         <v>131</v>
       </c>
       <c r="E132">
         <f t="shared" si="5"/>
-        <v>-2.7025064442737441</v>
+        <v>-2.7586618142069517</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5252,18 +5252,18 @@
         <v>13200</v>
       </c>
       <c r="B133">
-        <v>1.9807275001679E-3</v>
+        <v>1.7384045678035501E-3</v>
       </c>
       <c r="C133">
         <f t="shared" si="4"/>
-        <v>-2.7031752686884762</v>
+        <v>-2.7598491455409202</v>
       </c>
       <c r="D133" t="s">
         <v>132</v>
       </c>
       <c r="E133">
         <f t="shared" si="5"/>
-        <v>-2.7031752686884762</v>
+        <v>-2.7598491455409202</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5271,18 +5271,18 @@
         <v>13300</v>
       </c>
       <c r="B134">
-        <v>1.9778876544709399E-3</v>
+        <v>1.73371568007261E-3</v>
       </c>
       <c r="C134">
         <f t="shared" si="4"/>
-        <v>-2.7037983802964711</v>
+        <v>-2.7610221229497243</v>
       </c>
       <c r="D134" t="s">
         <v>133</v>
       </c>
       <c r="E134">
         <f t="shared" si="5"/>
-        <v>-2.7037983802964711</v>
+        <v>-2.7610221229497243</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5290,18 +5290,18 @@
         <v>13400</v>
       </c>
       <c r="B135">
-        <v>1.9751221995785301E-3</v>
+        <v>1.72889696326894E-3</v>
       </c>
       <c r="C135">
         <f t="shared" si="4"/>
-        <v>-2.7044060296775765</v>
+        <v>-2.7622308885173634</v>
       </c>
       <c r="D135" t="s">
         <v>134</v>
       </c>
       <c r="E135">
         <f t="shared" si="5"/>
-        <v>-2.7044060296775765</v>
+        <v>-2.7622308885173634</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5309,18 +5309,18 @@
         <v>13500</v>
       </c>
       <c r="B136">
-        <v>1.9723535325148599E-3</v>
+        <v>1.7241721539396199E-3</v>
       </c>
       <c r="C136">
         <f t="shared" si="4"/>
-        <v>-2.7050152377420473</v>
+        <v>-2.7634193732135546</v>
       </c>
       <c r="D136" t="s">
         <v>135</v>
       </c>
       <c r="E136">
         <f t="shared" si="5"/>
-        <v>-2.7050152377420473</v>
+        <v>-2.7634193732135546</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5328,18 +5328,18 @@
         <v>13600</v>
       </c>
       <c r="B137">
-        <v>1.9697406171381802E-3</v>
+        <v>1.71935473732229E-3</v>
       </c>
       <c r="C137">
         <f t="shared" si="4"/>
-        <v>-2.7055909596060492</v>
+        <v>-2.7646345104172974</v>
       </c>
       <c r="D137" t="s">
         <v>136</v>
       </c>
       <c r="E137">
         <f t="shared" si="5"/>
-        <v>-2.7055909596060492</v>
+        <v>-2.7646345104172974</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5347,18 +5347,18 @@
         <v>13700</v>
       </c>
       <c r="B138">
-        <v>1.9672575448875002E-3</v>
+        <v>1.7150345365317099E-3</v>
       </c>
       <c r="C138">
         <f t="shared" si="4"/>
-        <v>-2.7061387803950088</v>
+        <v>-2.7657271299220136</v>
       </c>
       <c r="D138" t="s">
         <v>137</v>
       </c>
       <c r="E138">
         <f t="shared" si="5"/>
-        <v>-2.7061387803950088</v>
+        <v>-2.7657271299220136</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5366,18 +5366,18 @@
         <v>13800</v>
       </c>
       <c r="B139">
-        <v>1.9649257940089699E-3</v>
+        <v>1.70939225412542E-3</v>
       </c>
       <c r="C139">
         <f t="shared" si="4"/>
-        <v>-2.7066538462356062</v>
+        <v>-2.7671582683177998</v>
       </c>
       <c r="D139" t="s">
         <v>138</v>
       </c>
       <c r="E139">
         <f t="shared" si="5"/>
-        <v>-2.7066538462356062</v>
+        <v>-2.7671582683177998</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5385,18 +5385,18 @@
         <v>13900</v>
       </c>
       <c r="B140">
-        <v>1.9627462098687899E-3</v>
+        <v>1.7045451725365901E-3</v>
       </c>
       <c r="C140">
         <f t="shared" si="4"/>
-        <v>-2.7071358526053619</v>
+        <v>-2.7683914849464308</v>
       </c>
       <c r="D140" t="s">
         <v>139</v>
       </c>
       <c r="E140">
         <f t="shared" si="5"/>
-        <v>-2.7071358526053619</v>
+        <v>-2.7683914849464308</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5404,18 +5404,18 @@
         <v>14000</v>
       </c>
       <c r="B141">
-        <v>1.96067240113412E-3</v>
+        <v>1.6994372487011799E-3</v>
       </c>
       <c r="C141">
         <f t="shared" si="4"/>
-        <v>-2.7075949643459958</v>
+        <v>-2.7696948670008688</v>
       </c>
       <c r="D141" t="s">
         <v>140</v>
       </c>
       <c r="E141">
         <f t="shared" si="5"/>
-        <v>-2.7075949643459958</v>
+        <v>-2.7696948670008688</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5423,18 +5423,18 @@
         <v>14100</v>
       </c>
       <c r="B142">
-        <v>1.9586828803304498E-3</v>
+        <v>1.69454631148867E-3</v>
       </c>
       <c r="C142">
         <f t="shared" si="4"/>
-        <v>-2.7080358725662657</v>
+        <v>-2.7709465575146308</v>
       </c>
       <c r="D142" t="s">
         <v>141</v>
       </c>
       <c r="E142">
         <f t="shared" si="5"/>
-        <v>-2.7080358725662657</v>
+        <v>-2.7709465575146308</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5442,18 +5442,18 @@
         <v>14200</v>
       </c>
       <c r="B143">
-        <v>1.9568037303915099E-3</v>
+        <v>1.6895529639596599E-3</v>
       </c>
       <c r="C143">
         <f t="shared" si="4"/>
-        <v>-2.7084527323811218</v>
+        <v>-2.7722281894499701</v>
       </c>
       <c r="D143" t="s">
         <v>142</v>
       </c>
       <c r="E143">
         <f t="shared" si="5"/>
-        <v>-2.7084527323811218</v>
+        <v>-2.7722281894499701</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5461,18 +5461,18 @@
         <v>14300</v>
       </c>
       <c r="B144">
-        <v>1.9550162523187102E-3</v>
+        <v>1.68438329170903E-3</v>
       </c>
       <c r="C144">
         <f t="shared" si="4"/>
-        <v>-2.7088496279034109</v>
+        <v>-2.7735590752276451</v>
       </c>
       <c r="D144" t="s">
         <v>143</v>
       </c>
       <c r="E144">
         <f t="shared" si="5"/>
-        <v>-2.7088496279034109</v>
+        <v>-2.7735590752276451</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5480,18 +5480,18 @@
         <v>14400</v>
       </c>
       <c r="B145">
-        <v>1.9532781780612399E-3</v>
+        <v>1.6791585575500201E-3</v>
       </c>
       <c r="C145">
         <f t="shared" si="4"/>
-        <v>-2.7092359018253811</v>
+        <v>-2.7749082928924516</v>
       </c>
       <c r="D145" t="s">
         <v>144</v>
       </c>
       <c r="E145">
         <f t="shared" si="5"/>
-        <v>-2.7092359018253811</v>
+        <v>-2.7749082928924516</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5499,18 +5499,18 @@
         <v>14500</v>
       </c>
       <c r="B146">
-        <v>1.95167220423987E-3</v>
+        <v>1.6741288500648601E-3</v>
       </c>
       <c r="C146">
         <f t="shared" si="4"/>
-        <v>-2.7095931230649577</v>
+        <v>-2.7762111193901564</v>
       </c>
       <c r="D146" t="s">
         <v>145</v>
       </c>
       <c r="E146">
         <f t="shared" si="5"/>
-        <v>-2.7095931230649577</v>
+        <v>-2.7762111193901564</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5518,18 +5518,18 @@
         <v>14600</v>
       </c>
       <c r="B147">
-        <v>1.9501101218616099E-3</v>
+        <v>1.6686450084870701E-3</v>
       </c>
       <c r="C147">
         <f t="shared" si="4"/>
-        <v>-2.7099408635264712</v>
+        <v>-2.7776360463365486</v>
       </c>
       <c r="D147" t="s">
         <v>146</v>
       </c>
       <c r="E147">
         <f t="shared" si="5"/>
-        <v>-2.7099408635264712</v>
+        <v>-2.7776360463365486</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5537,18 +5537,18 @@
         <v>14700</v>
       </c>
       <c r="B148">
-        <v>1.9486289274451901E-3</v>
+        <v>1.66322305234971E-3</v>
       </c>
       <c r="C148">
         <f t="shared" si="4"/>
-        <v>-2.7102708546258962</v>
+        <v>-2.7790495042929328</v>
       </c>
       <c r="D148" t="s">
         <v>147</v>
       </c>
       <c r="E148">
         <f t="shared" si="5"/>
-        <v>-2.7102708546258962</v>
+        <v>-2.7790495042929328</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5556,18 +5556,18 @@
         <v>14800</v>
       </c>
       <c r="B149">
-        <v>1.9472316227949699E-3</v>
+        <v>1.6578961632898099E-3</v>
       </c>
       <c r="C149">
         <f t="shared" si="4"/>
-        <v>-2.7105823861693508</v>
+        <v>-2.7804426734977077</v>
       </c>
       <c r="D149" t="s">
         <v>148</v>
       </c>
       <c r="E149">
         <f t="shared" si="5"/>
-        <v>-2.7105823861693508</v>
+        <v>-2.7804426734977077</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5575,18 +5575,18 @@
         <v>14900</v>
       </c>
       <c r="B150">
-        <v>1.94618756055023E-3</v>
+        <v>1.65247838393504E-3</v>
       </c>
       <c r="C150">
         <f t="shared" si="4"/>
-        <v>-2.7108153076510457</v>
+        <v>-2.7818642128100275</v>
       </c>
       <c r="D150" t="s">
         <v>149</v>
       </c>
       <c r="E150">
         <f t="shared" si="5"/>
-        <v>-2.7108153076510457</v>
+        <v>-2.7818642128100275</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5594,18 +5594,18 @@
         <v>15000</v>
       </c>
       <c r="B151">
-        <v>1.9446734407472101E-3</v>
+        <v>1.64656990723093E-3</v>
       </c>
       <c r="C151">
         <f t="shared" si="4"/>
-        <v>-2.7111533171087809</v>
+        <v>-2.783419826033072</v>
       </c>
       <c r="D151" t="s">
         <v>150</v>
       </c>
       <c r="E151">
         <f t="shared" si="5"/>
-        <v>-2.7111533171087809</v>
+        <v>-2.783419826033072</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5613,18 +5613,18 @@
         <v>15100</v>
       </c>
       <c r="B152">
-        <v>1.94448546468227E-3</v>
+        <v>1.64079641838532E-3</v>
       </c>
       <c r="C152">
         <f t="shared" si="4"/>
-        <v>-2.7111952989201606</v>
+        <v>-2.7849453006389524</v>
       </c>
       <c r="D152" t="s">
         <v>151</v>
       </c>
       <c r="E152">
         <f t="shared" si="5"/>
-        <v>-2.7111952989201606</v>
+        <v>-2.7849453006389524</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5632,18 +5632,18 @@
         <v>15200</v>
       </c>
       <c r="B153">
-        <v>1.9421922075123399E-3</v>
+        <v>1.63477269298602E-3</v>
       </c>
       <c r="C153">
         <f t="shared" si="4"/>
-        <v>-2.7117077926919935</v>
+        <v>-2.786542625294024</v>
       </c>
       <c r="D153" t="s">
         <v>152</v>
       </c>
       <c r="E153">
         <f t="shared" si="5"/>
-        <v>-2.7117077926919935</v>
+        <v>-2.786542625294024</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5651,18 +5651,18 @@
         <v>15300</v>
       </c>
       <c r="B154">
-        <v>1.94108079163293E-3</v>
+        <v>1.62880432605794E-3</v>
       </c>
       <c r="C154">
         <f t="shared" si="4"/>
-        <v>-2.7119563880376276</v>
+        <v>-2.7881310858680179</v>
       </c>
       <c r="D154" t="s">
         <v>153</v>
       </c>
       <c r="E154">
         <f t="shared" si="5"/>
-        <v>-2.7119563880376276</v>
+        <v>-2.7881310858680179</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5670,18 +5670,18 @@
         <v>15400</v>
       </c>
       <c r="B155">
-        <v>1.93990824382665E-3</v>
+        <v>1.6225351749693099E-3</v>
       </c>
       <c r="C155">
         <f t="shared" si="4"/>
-        <v>-2.7122188113801706</v>
+        <v>-2.7898058793476341</v>
       </c>
       <c r="D155" t="s">
         <v>154</v>
       </c>
       <c r="E155">
         <f t="shared" si="5"/>
-        <v>-2.7122188113801706</v>
+        <v>-2.7898058793476341</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5689,18 +5689,18 @@
         <v>15500</v>
       </c>
       <c r="B156">
-        <v>1.9388040966406999E-3</v>
+        <v>1.61616250765055E-3</v>
       </c>
       <c r="C156">
         <f t="shared" si="4"/>
-        <v>-2.7124660712957964</v>
+        <v>-2.7915149723810426</v>
       </c>
       <c r="D156" t="s">
         <v>155</v>
       </c>
       <c r="E156">
         <f t="shared" si="5"/>
-        <v>-2.7124660712957964</v>
+        <v>-2.7915149723810426</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5708,18 +5708,18 @@
         <v>15600</v>
       </c>
       <c r="B157">
-        <v>1.93783146176168E-3</v>
+        <v>1.6098550026959299E-3</v>
       </c>
       <c r="C157">
         <f t="shared" si="4"/>
-        <v>-2.7126839973625443</v>
+        <v>-2.7932132384804738</v>
       </c>
       <c r="D157" t="s">
         <v>156</v>
       </c>
       <c r="E157">
         <f t="shared" si="5"/>
-        <v>-2.7126839973625443</v>
+        <v>-2.7932132384804738</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5727,18 +5727,18 @@
         <v>15700</v>
       </c>
       <c r="B158">
-        <v>1.9367883865519799E-3</v>
+        <v>1.6042431585570199E-3</v>
       </c>
       <c r="C158">
         <f t="shared" si="4"/>
-        <v>-2.7129178276924657</v>
+        <v>-2.7947298041217152</v>
       </c>
       <c r="D158" t="s">
         <v>157</v>
       </c>
       <c r="E158">
         <f t="shared" si="5"/>
-        <v>-2.7129178276924657</v>
+        <v>-2.7947298041217152</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5746,18 +5746,18 @@
         <v>15800</v>
       </c>
       <c r="B159">
-        <v>1.9357378343076699E-3</v>
+        <v>1.5967190497712799E-3</v>
       </c>
       <c r="C159">
         <f t="shared" si="4"/>
-        <v>-2.7131534615024528</v>
+        <v>-2.7967714932966841</v>
       </c>
       <c r="D159" t="s">
         <v>158</v>
       </c>
       <c r="E159">
         <f t="shared" si="5"/>
-        <v>-2.7131534615024528</v>
+        <v>-2.7967714932966841</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5765,18 +5765,18 @@
         <v>15900</v>
       </c>
       <c r="B160">
-        <v>1.9349147439249701E-3</v>
+        <v>1.58983792243855E-3</v>
       </c>
       <c r="C160">
         <f t="shared" si="4"/>
-        <v>-2.7133381660758946</v>
+        <v>-2.7986471479930159</v>
       </c>
       <c r="D160" t="s">
         <v>159</v>
       </c>
       <c r="E160">
         <f t="shared" si="5"/>
-        <v>-2.7133381660758946</v>
+        <v>-2.7986471479930159</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5784,18 +5784,18 @@
         <v>16000</v>
       </c>
       <c r="B161">
-        <v>1.9337528844968299E-3</v>
+        <v>1.5825974966927701E-3</v>
       </c>
       <c r="C161">
         <f t="shared" si="4"/>
-        <v>-2.7135990254735085</v>
+        <v>-2.8006295255624942</v>
       </c>
       <c r="D161" t="s">
         <v>160</v>
       </c>
       <c r="E161">
         <f t="shared" si="5"/>
-        <v>-2.7135990254735085</v>
+        <v>-2.8006295255624942</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5803,18 +5803,18 @@
         <v>16100</v>
       </c>
       <c r="B162">
-        <v>1.93279365741722E-3</v>
+        <v>1.57566751670823E-3</v>
       </c>
       <c r="C162">
         <f t="shared" si="4"/>
-        <v>-2.7138145082210183</v>
+        <v>-2.8025354181233739</v>
       </c>
       <c r="D162" t="s">
         <v>161</v>
       </c>
       <c r="E162">
         <f t="shared" si="5"/>
-        <v>-2.7138145082210183</v>
+        <v>-2.8025354181233739</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5822,18 +5822,18 @@
         <v>16200</v>
       </c>
       <c r="B163">
-        <v>1.93187667692726E-3</v>
+        <v>1.5684288481926901E-3</v>
       </c>
       <c r="C163">
         <f t="shared" si="4"/>
-        <v>-2.7140206006117387</v>
+        <v>-2.8045351782975656</v>
       </c>
       <c r="D163" t="s">
         <v>162</v>
       </c>
       <c r="E163">
         <f t="shared" si="5"/>
-        <v>-2.7140206006117387</v>
+        <v>-2.8045351782975656</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5841,18 +5841,18 @@
         <v>16300</v>
       </c>
       <c r="B164">
-        <v>1.93090976365469E-3</v>
+        <v>1.56096554741565E-3</v>
       </c>
       <c r="C164">
         <f t="shared" si="4"/>
-        <v>-2.7142380214368278</v>
+        <v>-2.8066066822882494</v>
       </c>
       <c r="D164" t="s">
         <v>163</v>
       </c>
       <c r="E164">
         <f t="shared" si="5"/>
-        <v>-2.7142380214368278</v>
+        <v>-2.8066066822882494</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5860,18 +5860,18 @@
         <v>16400</v>
       </c>
       <c r="B165">
-        <v>1.92996208608191E-3</v>
+        <v>1.55316273663057E-3</v>
       </c>
       <c r="C165">
         <f t="shared" si="4"/>
-        <v>-2.7144512225814217</v>
+        <v>-2.8087830375631859</v>
       </c>
       <c r="D165" t="s">
         <v>164</v>
       </c>
       <c r="E165">
         <f t="shared" si="5"/>
-        <v>-2.7144512225814217</v>
+        <v>-2.8087830375631859</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5879,18 +5879,18 @@
         <v>16500</v>
       </c>
       <c r="B166">
-        <v>1.92899813201653E-3</v>
+        <v>1.54523179605582E-3</v>
       </c>
       <c r="C166">
         <f t="shared" si="4"/>
-        <v>-2.7146681929135577</v>
+        <v>-2.8110063640079859</v>
       </c>
       <c r="D166" t="s">
         <v>165</v>
       </c>
       <c r="E166">
         <f t="shared" si="5"/>
-        <v>-2.7146681929135577</v>
+        <v>-2.8110063640079859</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5898,18 +5898,18 @@
         <v>16600</v>
       </c>
       <c r="B167">
-        <v>1.9307002009922301E-3</v>
+        <v>1.53710696933389E-3</v>
       </c>
       <c r="C167">
         <f t="shared" si="4"/>
-        <v>-2.7142851582056062</v>
+        <v>-2.8132959083135733</v>
       </c>
       <c r="D167" t="s">
         <v>166</v>
       </c>
       <c r="E167">
         <f t="shared" si="5"/>
-        <v>-2.7142851582056062</v>
+        <v>-2.8132959083135733</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5917,18 +5917,18 @@
         <v>16700</v>
       </c>
       <c r="B168">
-        <v>1.92713341510627E-3</v>
+        <v>1.5286337890697799E-3</v>
       </c>
       <c r="C168">
         <f t="shared" si="4"/>
-        <v>-2.7150882181734151</v>
+        <v>-2.8156965449575275</v>
       </c>
       <c r="D168" t="s">
         <v>167</v>
       </c>
       <c r="E168">
         <f t="shared" si="5"/>
-        <v>-2.7150882181734151</v>
+        <v>-2.8156965449575275</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5936,18 +5936,18 @@
         <v>16800</v>
       </c>
       <c r="B169">
-        <v>1.92636108752004E-3</v>
+        <v>1.51970682337729E-3</v>
       </c>
       <c r="C169">
         <f t="shared" si="4"/>
-        <v>-2.7152623030790424</v>
+        <v>-2.818240186575113</v>
       </c>
       <c r="D169" t="s">
         <v>168</v>
       </c>
       <c r="E169">
         <f t="shared" si="5"/>
-        <v>-2.7152623030790424</v>
+        <v>-2.818240186575113</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5955,18 +5955,18 @@
         <v>16900</v>
       </c>
       <c r="B170">
-        <v>1.9253928960317E-3</v>
+        <v>1.51060992229025E-3</v>
       </c>
       <c r="C170">
         <f t="shared" si="4"/>
-        <v>-2.7154806348995395</v>
+        <v>-2.8208476670095974</v>
       </c>
       <c r="D170" t="s">
         <v>169</v>
       </c>
       <c r="E170">
         <f t="shared" si="5"/>
-        <v>-2.7154806348995395</v>
+        <v>-2.8208476670095974</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5974,18 +5974,18 @@
         <v>17000</v>
       </c>
       <c r="B171">
-        <v>1.9244583587518E-3</v>
+        <v>1.5011970247582999E-3</v>
       </c>
       <c r="C171">
         <f t="shared" si="4"/>
-        <v>-2.7156914816907034</v>
+        <v>-2.8235623049919241</v>
       </c>
       <c r="D171" t="s">
         <v>170</v>
       </c>
       <c r="E171">
         <f t="shared" si="5"/>
-        <v>-2.7156914816907034</v>
+        <v>-2.8235623049919241</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5993,18 +5993,18 @@
         <v>17100</v>
       </c>
       <c r="B172">
-        <v>1.9234914316570799E-3</v>
+        <v>1.49884423001292E-3</v>
       </c>
       <c r="C172">
         <f t="shared" si="4"/>
-        <v>-2.7159097439515705</v>
+        <v>-2.8242434996140537</v>
       </c>
       <c r="D172" t="s">
         <v>171</v>
       </c>
       <c r="E172">
         <f t="shared" si="5"/>
-        <v>-2.7159097439515705</v>
+        <v>-2.8242434996140537</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6012,18 +6012,18 @@
         <v>17200</v>
       </c>
       <c r="B173">
-        <v>1.9225187678185299E-3</v>
+        <v>1.4815989227745499E-3</v>
       </c>
       <c r="C173">
         <f t="shared" si="4"/>
-        <v>-2.7161294118801123</v>
+        <v>-2.8292693464243159</v>
       </c>
       <c r="D173" t="s">
         <v>172</v>
       </c>
       <c r="E173">
         <f t="shared" si="5"/>
-        <v>-2.7161294118801123</v>
+        <v>-2.8292693464243159</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6031,18 +6031,18 @@
         <v>17300</v>
       </c>
       <c r="B174">
-        <v>1.96527751020136E-3</v>
+        <v>1.4722780362845E-3</v>
       </c>
       <c r="C174">
         <f t="shared" si="4"/>
-        <v>-2.7065761157010075</v>
+        <v>-2.8320101667500372</v>
       </c>
       <c r="D174" t="s">
         <v>173</v>
       </c>
       <c r="E174">
         <f t="shared" si="5"/>
-        <v>-2.7065761157010075</v>
+        <v>-2.8320101667500372</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6050,18 +6050,18 @@
         <v>17400</v>
       </c>
       <c r="B175">
-        <v>1.9206871361599699E-3</v>
+        <v>1.46056825058653E-3</v>
       </c>
       <c r="C175">
         <f t="shared" si="4"/>
-        <v>-2.7165433723091361</v>
+        <v>-2.8354781441607737</v>
       </c>
       <c r="D175" t="s">
         <v>174</v>
       </c>
       <c r="E175">
         <f t="shared" si="5"/>
-        <v>-2.7165433723091361</v>
+        <v>-2.8354781441607737</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6069,18 +6069,18 @@
         <v>17500</v>
       </c>
       <c r="B176">
-        <v>1.91976269110654E-3</v>
+        <v>1.4566611158440301E-3</v>
       </c>
       <c r="C176">
         <f t="shared" si="4"/>
-        <v>-2.7167524527092657</v>
+        <v>-2.8366414726894473</v>
       </c>
       <c r="D176" t="s">
         <v>175</v>
       </c>
       <c r="E176">
         <f t="shared" si="5"/>
-        <v>-2.7167524527092657</v>
+        <v>-2.8366414726894473</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6088,18 +6088,18 @@
         <v>17600</v>
       </c>
       <c r="B177">
-        <v>1.9187550323050001E-3</v>
+        <v>1.43752655483984E-3</v>
       </c>
       <c r="C177">
         <f t="shared" si="4"/>
-        <v>-2.7169804681562355</v>
+        <v>-2.842384124019973</v>
       </c>
       <c r="D177" t="s">
         <v>176</v>
       </c>
       <c r="E177">
         <f t="shared" si="5"/>
-        <v>-2.7169804681562355</v>
+        <v>-2.842384124019973</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6107,18 +6107,18 @@
         <v>17700</v>
       </c>
       <c r="B178">
-        <v>1.91781158670436E-3</v>
+        <v>1.4249730027270501E-3</v>
       </c>
       <c r="C178">
         <f t="shared" si="4"/>
-        <v>-2.7171940618546029</v>
+        <v>-2.8461933636398467</v>
       </c>
       <c r="D178" t="s">
         <v>177</v>
       </c>
       <c r="E178">
         <f t="shared" si="5"/>
-        <v>-2.7171940618546029</v>
+        <v>-2.8461933636398467</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6126,18 +6126,18 @@
         <v>17800</v>
       </c>
       <c r="B179">
-        <v>1.91691864762173E-3</v>
+        <v>1.4118112624286899E-3</v>
       </c>
       <c r="C179">
         <f t="shared" si="4"/>
-        <v>-2.7173963178150351</v>
+        <v>-2.8502233579332352</v>
       </c>
       <c r="D179" t="s">
         <v>178</v>
       </c>
       <c r="E179">
         <f t="shared" si="5"/>
-        <v>-2.7173963178150351</v>
+        <v>-2.8502233579332352</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6145,18 +6145,18 @@
         <v>17900</v>
       </c>
       <c r="B180">
-        <v>1.9159335695223701E-3</v>
+        <v>1.39853837830317E-3</v>
       </c>
       <c r="C180">
         <f t="shared" si="4"/>
-        <v>-2.7176195531332672</v>
+        <v>-2.8543256113399353</v>
       </c>
       <c r="D180" t="s">
         <v>179</v>
       </c>
       <c r="E180">
         <f t="shared" si="5"/>
-        <v>-2.7176195531332672</v>
+        <v>-2.8543256113399353</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6164,18 +6164,18 @@
         <v>18000</v>
       </c>
       <c r="B181">
-        <v>1.91491013378216E-3</v>
+        <v>1.3921071722044699E-3</v>
       </c>
       <c r="C181">
         <f t="shared" si="4"/>
-        <v>-2.7178516025404234</v>
+        <v>-2.8563273290175912</v>
       </c>
       <c r="D181" t="s">
         <v>180</v>
       </c>
       <c r="E181">
         <f t="shared" si="5"/>
-        <v>-2.7178516025404234</v>
+        <v>-2.8563273290175912</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6183,18 +6183,18 @@
         <v>18100</v>
       </c>
       <c r="B182">
-        <v>1.9139284914061799E-3</v>
+        <v>1.36940477886777E-3</v>
       </c>
       <c r="C182">
         <f t="shared" si="4"/>
-        <v>-2.7180742924566954</v>
+        <v>-2.8634681608908696</v>
       </c>
       <c r="D182" t="s">
         <v>181</v>
       </c>
       <c r="E182">
         <f t="shared" si="5"/>
-        <v>-2.7180742924566954</v>
+        <v>-2.8634681608908696</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6202,18 +6202,18 @@
         <v>18200</v>
       </c>
       <c r="B183">
-        <v>1.9129690920748699E-3</v>
+        <v>1.3537390711747901E-3</v>
       </c>
       <c r="C183">
         <f t="shared" si="4"/>
-        <v>-2.7182920468309213</v>
+        <v>-2.8684650364405964</v>
       </c>
       <c r="D183" t="s">
         <v>182</v>
       </c>
       <c r="E183">
         <f t="shared" si="5"/>
-        <v>-2.7182920468309213</v>
+        <v>-2.8684650364405964</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6221,18 +6221,18 @@
         <v>18300</v>
       </c>
       <c r="B184">
-        <v>1.9120452723052201E-3</v>
+        <v>1.33722444168035E-3</v>
       </c>
       <c r="C184">
         <f t="shared" si="4"/>
-        <v>-2.7185018289639085</v>
+        <v>-2.8737956940074567</v>
       </c>
       <c r="D184" t="s">
         <v>183</v>
       </c>
       <c r="E184">
         <f t="shared" si="5"/>
-        <v>-2.7185018289639085</v>
+        <v>-2.8737956940074567</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6240,18 +6240,18 @@
         <v>18400</v>
       </c>
       <c r="B185">
-        <v>1.9108742776548101E-3</v>
+        <v>1.3204693081892501E-3</v>
       </c>
       <c r="C185">
         <f t="shared" si="4"/>
-        <v>-2.7187678855859589</v>
+        <v>-2.8792716886932967</v>
       </c>
       <c r="D185" t="s">
         <v>184</v>
       </c>
       <c r="E185">
         <f t="shared" si="5"/>
-        <v>-2.7187678855859589</v>
+        <v>-2.8792716886932967</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6259,18 +6259,18 @@
         <v>18500</v>
       </c>
       <c r="B186">
-        <v>1.90983994020869E-3</v>
+        <v>1.3025641571487901E-3</v>
       </c>
       <c r="C186">
         <f t="shared" si="4"/>
-        <v>-2.7190030285621858</v>
+        <v>-2.8852008765432235</v>
       </c>
       <c r="D186" t="s">
         <v>185</v>
       </c>
       <c r="E186">
         <f t="shared" si="5"/>
-        <v>-2.7190030285621858</v>
+        <v>-2.8852008765432235</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6278,18 +6278,18 @@
         <v>18600</v>
       </c>
       <c r="B187">
-        <v>1.90873734540216E-3</v>
+        <v>1.3361950137165399E-3</v>
       </c>
       <c r="C187">
         <f t="shared" si="4"/>
-        <v>-2.7192538292231352</v>
+        <v>-2.8741301532374841</v>
       </c>
       <c r="D187" t="s">
         <v>186</v>
       </c>
       <c r="E187">
         <f t="shared" si="5"/>
-        <v>-2.7192538292231352</v>
+        <v>-2.8741301532374841</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6297,18 +6297,18 @@
         <v>18700</v>
       </c>
       <c r="B188">
-        <v>1.90769375006179E-3</v>
+        <v>1.2632928722281799E-3</v>
       </c>
       <c r="C188">
         <f t="shared" si="4"/>
-        <v>-2.7194913431190355</v>
+        <v>-2.898495954236628</v>
       </c>
       <c r="D188" t="s">
         <v>187</v>
       </c>
       <c r="E188">
         <f t="shared" si="5"/>
-        <v>-2.7194913431190355</v>
+        <v>-2.898495954236628</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6316,18 +6316,18 @@
         <v>18800</v>
       </c>
       <c r="B189">
-        <v>1.90665135741868E-3</v>
+        <v>1.24184904618775E-3</v>
       </c>
       <c r="C189">
         <f t="shared" si="4"/>
-        <v>-2.7197287130325551</v>
+        <v>-2.905931191914688</v>
       </c>
       <c r="D189" t="s">
         <v>188</v>
       </c>
       <c r="E189">
         <f t="shared" si="5"/>
-        <v>-2.7197287130325551</v>
+        <v>-2.905931191914688</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6335,18 +6335,18 @@
         <v>18900</v>
       </c>
       <c r="B190">
-        <v>1.90547861856284E-3</v>
+        <v>1.2200700480753501E-3</v>
       </c>
       <c r="C190">
         <f t="shared" si="4"/>
-        <v>-2.7199959200968897</v>
+        <v>-2.9136152343914166</v>
       </c>
       <c r="D190" t="s">
         <v>189</v>
       </c>
       <c r="E190">
         <f t="shared" si="5"/>
-        <v>-2.7199959200968897</v>
+        <v>-2.9136152343914166</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6354,18 +6354,18 @@
         <v>19000</v>
       </c>
       <c r="B191">
-        <v>1.90423863125373E-3</v>
+        <v>1.1970084891056499E-3</v>
       </c>
       <c r="C191">
         <f t="shared" si="4"/>
-        <v>-2.7202786285656186</v>
+        <v>-2.9219027695947033</v>
       </c>
       <c r="D191" t="s">
         <v>190</v>
       </c>
       <c r="E191">
         <f t="shared" si="5"/>
-        <v>-2.7202786285656186</v>
+        <v>-2.9219027695947033</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6373,18 +6373,18 @@
         <v>19100</v>
       </c>
       <c r="B192">
-        <v>1.9030348348722599E-3</v>
+        <v>1.17358626556329E-3</v>
       </c>
       <c r="C192">
         <f t="shared" si="4"/>
-        <v>-2.7205532619208954</v>
+        <v>-2.9304849816673113</v>
       </c>
       <c r="D192" t="s">
         <v>191</v>
       </c>
       <c r="E192">
         <f t="shared" si="5"/>
-        <v>-2.7205532619208954</v>
+        <v>-2.9304849816673113</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6392,18 +6392,18 @@
         <v>19200</v>
       </c>
       <c r="B193">
-        <v>1.90187229131666E-3</v>
+        <v>1.1483974712879501E-3</v>
       </c>
       <c r="C193">
         <f t="shared" si="4"/>
-        <v>-2.7208186488279269</v>
+        <v>-2.9399077724685467</v>
       </c>
       <c r="D193" t="s">
         <v>192</v>
       </c>
       <c r="E193">
         <f t="shared" si="5"/>
-        <v>-2.7208186488279269</v>
+        <v>-2.9399077724685467</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6411,18 +6411,18 @@
         <v>19300</v>
       </c>
       <c r="B194">
-        <v>1.90059302295481E-3</v>
+        <v>1.1223980138102001E-3</v>
       </c>
       <c r="C194">
         <f t="shared" si="4"/>
-        <v>-2.7211108693561723</v>
+        <v>-2.9498531105043164</v>
       </c>
       <c r="D194" t="s">
         <v>193</v>
       </c>
       <c r="E194">
         <f t="shared" si="5"/>
-        <v>-2.7211108693561723</v>
+        <v>-2.9498531105043164</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6430,18 +6430,18 @@
         <v>19400</v>
       </c>
       <c r="B195">
-        <v>1.8993079025799199E-3</v>
+        <v>1.0963422912974E-3</v>
       </c>
       <c r="C195">
         <f t="shared" ref="C195:C200" si="6">LOG10(B195)</f>
-        <v>-2.7214046247564383</v>
+        <v>-2.9600538327008543</v>
       </c>
       <c r="D195" t="s">
         <v>194</v>
       </c>
       <c r="E195">
         <f t="shared" ref="E195:E200" si="7">LOG10(B195)</f>
-        <v>-2.7214046247564383</v>
+        <v>-2.9600538327008543</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6449,18 +6449,18 @@
         <v>19500</v>
       </c>
       <c r="B196">
-        <v>1.89799989818875E-3</v>
+        <v>1.0686444965162501E-3</v>
       </c>
       <c r="C196">
         <f t="shared" si="6"/>
-        <v>-2.7217038152048616</v>
+        <v>-2.9711667465024068</v>
       </c>
       <c r="D196" t="s">
         <v>195</v>
       </c>
       <c r="E196">
         <f t="shared" si="7"/>
-        <v>-2.7217038152048616</v>
+        <v>-2.9711667465024068</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6468,18 +6468,18 @@
         <v>19600</v>
       </c>
       <c r="B197">
-        <v>1.8967705769234401E-3</v>
+        <v>1.04039556198387E-3</v>
       </c>
       <c r="C197">
         <f t="shared" si="6"/>
-        <v>-2.7219851958386512</v>
+        <v>-2.9828015090425111</v>
       </c>
       <c r="D197" t="s">
         <v>196</v>
       </c>
       <c r="E197">
         <f t="shared" si="7"/>
-        <v>-2.7219851958386512</v>
+        <v>-2.9828015090425111</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6487,18 +6487,18 @@
         <v>19700</v>
       </c>
       <c r="B198">
-        <v>1.89535284768935E-3</v>
+        <v>1.0122128577709901E-3</v>
       </c>
       <c r="C198">
         <f t="shared" si="6"/>
-        <v>-2.7223099278913523</v>
+        <v>-2.9947281503076852</v>
       </c>
       <c r="D198" t="s">
         <v>197</v>
       </c>
       <c r="E198">
         <f t="shared" si="7"/>
-        <v>-2.7223099278913523</v>
+        <v>-2.9947281503076852</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6506,18 +6506,18 @@
         <v>19800</v>
       </c>
       <c r="B199">
-        <v>1.8940239873645899E-3</v>
+        <v>9.8464006766957801E-4</v>
       </c>
       <c r="C199">
         <f t="shared" si="6"/>
-        <v>-2.7226145250613047</v>
+        <v>-3.0067224955856626</v>
       </c>
       <c r="D199" t="s">
         <v>198</v>
       </c>
       <c r="E199">
         <f t="shared" si="7"/>
-        <v>-2.7226145250613047</v>
+        <v>-3.0067224955856626</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6525,18 +6525,18 @@
         <v>19900</v>
       </c>
       <c r="B200">
-        <v>1.89251623534325E-3</v>
+        <v>9.5489187144375302E-4</v>
       </c>
       <c r="C200">
         <f t="shared" si="6"/>
-        <v>-2.7229603861265734</v>
+        <v>-3.020045803593201</v>
       </c>
       <c r="D200" t="s">
         <v>199</v>
       </c>
       <c r="E200">
         <f t="shared" si="7"/>
-        <v>-2.7229603861265734</v>
+        <v>-3.020045803593201</v>
       </c>
     </row>
   </sheetData>
